--- a/Functional Diversity/trait_matrix_refs.xlsx
+++ b/Functional Diversity/trait_matrix_refs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>species</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Haematopus palliatus</t>
   </si>
   <si>
+    <t>1,7</t>
+  </si>
+  <si>
     <t>Himantopus himantopus</t>
   </si>
   <si>
@@ -163,22 +166,34 @@
     <t>Calidris canutus</t>
   </si>
   <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>4,5,7</t>
+  </si>
+  <si>
     <t>Calidris alba</t>
   </si>
   <si>
+    <t>7,8</t>
+  </si>
+  <si>
     <t>Calidris pusilla</t>
   </si>
   <si>
     <t>Calidris fuscicollis</t>
   </si>
   <si>
+    <t>6,7</t>
+  </si>
+  <si>
     <t>Micropalama himantopus</t>
   </si>
   <si>
     <t>Tryngites subruficollis</t>
   </si>
   <si>
-    <t>Summary Classification Schemes Images &amp; External Links Bibliography Full Account</t>
+    <t>Phalaropus tricolor</t>
   </si>
 </sst>
 </file>
@@ -189,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,6 +229,14 @@
     <font>
       <i val="true"/>
       <sz val="10"/>
+      <color rgb="FF660066"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF660066"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -221,6 +244,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF660066"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -268,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,15 +301,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,44 +341,44 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3770" ySplit="630" topLeftCell="A1" activePane="bottomRight" state="split"/>
+      <pane xSplit="4248" ySplit="750" topLeftCell="B7" activePane="bottomRight" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.68877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,28 +471,16 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="0" t="n">
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -468,267 +488,596 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="0" t="n">
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="0"/>
+      <c r="S21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>52</v>
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Functional Diversity/trait_matrix_refs.xlsx
+++ b/Functional Diversity/trait_matrix_refs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t xml:space="preserve">family</t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">molluscs</t>
   </si>
   <si>
-    <t xml:space="preserve">medusa</t>
-  </si>
-  <si>
     <t xml:space="preserve">herps</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t xml:space="preserve">jabbing</t>
   </si>
   <si>
-    <t xml:space="preserve">stitching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ploughing</t>
-  </si>
-  <si>
     <t xml:space="preserve">scything</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t xml:space="preserve">Anas versicolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Anurolimnas fasciatus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aramides ypecaha</t>
   </si>
   <si>
@@ -256,7 +244,7 @@
     <t xml:space="preserve">Coscoroba coscoroba</t>
   </si>
   <si>
-    <t xml:space="preserve">Cygnus melancoryphus</t>
+    <t xml:space="preserve">Cygnus melanocoryphus</t>
   </si>
   <si>
     <t xml:space="preserve">Dendrocygna bicolor</t>
@@ -280,7 +268,7 @@
     <t xml:space="preserve">Gallinula chloropus</t>
   </si>
   <si>
-    <t xml:space="preserve">Gallinula melanops </t>
+    <t xml:space="preserve">Gallinula melanops</t>
   </si>
   <si>
     <t xml:space="preserve">Gelochelidon nilotica</t>
@@ -633,48 +621,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:81"/>
+  <dimension ref="1:80"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4386" ySplit="855" topLeftCell="W66" activePane="bottomRight" state="split"/>
+      <pane xSplit="8131" ySplit="2085" topLeftCell="M37" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
-      <selection pane="bottomRight" activeCell="AI80" activeCellId="0" sqref="AI80"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.3010204081633"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.10204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.20918367346939"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="22" min="18" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="21" min="17" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1021" min="31" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,35 +753,29 @@
       <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>9</v>
@@ -804,8 +783,12 @@
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
+      <c r="E2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
@@ -819,38 +802,38 @@
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="0"/>
-      <c r="S2" s="6"/>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="0"/>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="X2" s="0"/>
       <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
+      <c r="Z2" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="AA2" s="0"/>
       <c r="AB2" s="0"/>
-      <c r="AC2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
-      <c r="AG2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="AI2" s="0"/>
       <c r="AJ2" s="0"/>
-      <c r="AK2" s="0" t="n">
-        <v>11</v>
-      </c>
+      <c r="AK2" s="0"/>
       <c r="AL2" s="0"/>
       <c r="AM2" s="0"/>
       <c r="AN2" s="0"/>
@@ -1835,14 +1818,11 @@
       <c r="AME2" s="0"/>
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>9</v>
@@ -1850,8 +1830,12 @@
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="E3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
@@ -1867,40 +1851,40 @@
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
       <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
+      <c r="Z3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA3" s="0"/>
       <c r="AB3" s="0"/>
-      <c r="AC3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF3" s="0"/>
-      <c r="AG3" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG3" s="0"/>
       <c r="AH3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI3" s="0"/>
       <c r="AJ3" s="0"/>
-      <c r="AK3" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK3" s="0"/>
       <c r="AL3" s="0"/>
       <c r="AM3" s="0"/>
       <c r="AN3" s="0"/>
@@ -2885,23 +2869,24 @@
       <c r="AME3" s="0"/>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
@@ -2919,36 +2904,36 @@
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="0"/>
-      <c r="S4" s="6"/>
+      <c r="P4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="0"/>
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
       <c r="V4" s="0"/>
       <c r="W4" s="0"/>
       <c r="X4" s="0"/>
       <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
+      <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA4" s="0"/>
       <c r="AB4" s="0"/>
-      <c r="AC4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE4" s="0"/>
       <c r="AF4" s="0"/>
-      <c r="AG4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI4" s="0"/>
       <c r="AJ4" s="0"/>
-      <c r="AK4" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK4" s="0"/>
       <c r="AL4" s="0"/>
       <c r="AM4" s="0"/>
       <c r="AN4" s="0"/>
@@ -3933,14 +3918,11 @@
       <c r="AME4" s="0"/>
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>9</v>
@@ -3948,8 +3930,12 @@
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
+      <c r="E5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
       </c>
@@ -3967,38 +3953,38 @@
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="0"/>
-      <c r="S5" s="6"/>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="0"/>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0"/>
       <c r="Y5" s="0"/>
-      <c r="Z5" s="0"/>
+      <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA5" s="0"/>
       <c r="AB5" s="0"/>
-      <c r="AC5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF5" s="0"/>
-      <c r="AG5" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="0"/>
       <c r="AH5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI5" s="0"/>
       <c r="AJ5" s="0"/>
-      <c r="AK5" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK5" s="0"/>
       <c r="AL5" s="0"/>
       <c r="AM5" s="0"/>
       <c r="AN5" s="0"/>
@@ -4983,38 +4969,57 @@
       <c r="AME5" s="0"/>
       <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
+      <c r="J6" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
+      <c r="M6" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
+      <c r="O6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
       <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
+      <c r="W6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y6" s="0"/>
       <c r="Z6" s="0"/>
       <c r="AA6" s="0"/>
@@ -5037,13 +5042,10 @@
       <c r="AR6" s="0"/>
       <c r="AS6" s="0"/>
       <c r="AT6" s="0"/>
-      <c r="AU6" s="0"/>
-      <c r="AV6" s="0"/>
-      <c r="AW6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>9</v>
@@ -5051,45 +5053,47 @@
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="E7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="H7" s="0"/>
       <c r="I7" s="0"/>
-      <c r="J7" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="J7" s="0"/>
       <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="P7" s="0"/>
       <c r="Q7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="X7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="Y7" s="0"/>
       <c r="Z7" s="0"/>
       <c r="AA7" s="0"/>
       <c r="AB7" s="0"/>
@@ -5111,13 +5115,10 @@
       <c r="AR7" s="0"/>
       <c r="AS7" s="0"/>
       <c r="AT7" s="0"/>
-      <c r="AU7" s="0"/>
-      <c r="AV7" s="0"/>
-      <c r="AW7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>9</v>
@@ -5125,52 +5126,66 @@
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
+      <c r="E8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="0"/>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" s="0"/>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X8" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="X8" s="0"/>
       <c r="Y8" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="AA8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB8" s="0"/>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
+      <c r="AE8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="AH8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI8" s="0"/>
       <c r="AJ8" s="0"/>
       <c r="AK8" s="0"/>
@@ -5183,13 +5198,10 @@
       <c r="AR8" s="0"/>
       <c r="AS8" s="0"/>
       <c r="AT8" s="0"/>
-      <c r="AU8" s="0"/>
-      <c r="AV8" s="0"/>
-      <c r="AW8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>9</v>
@@ -5197,18 +5209,20 @@
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+      <c r="E9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
@@ -5216,13 +5230,9 @@
       <c r="O9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P9" s="0"/>
       <c r="Q9" s="0"/>
-      <c r="R9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0"/>
@@ -5232,30 +5242,24 @@
       <c r="W9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="0"/>
       <c r="AA9" s="0"/>
       <c r="AB9" s="0"/>
       <c r="AC9" s="0"/>
-      <c r="AD9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="0"/>
       <c r="AI9" s="0"/>
       <c r="AJ9" s="0"/>
-      <c r="AK9" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK9" s="0"/>
       <c r="AL9" s="0"/>
       <c r="AM9" s="0"/>
       <c r="AN9" s="0"/>
@@ -5265,13 +5269,10 @@
       <c r="AR9" s="0"/>
       <c r="AS9" s="0"/>
       <c r="AT9" s="0"/>
-      <c r="AU9" s="0"/>
-      <c r="AV9" s="0"/>
-      <c r="AW9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>9</v>
@@ -5279,42 +5280,46 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
+      <c r="E10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="H10" s="0"/>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="6"/>
+      <c r="P10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" s="0"/>
       <c r="U10" s="0"/>
       <c r="V10" s="0"/>
-      <c r="W10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
       <c r="Y10" s="0"/>
-      <c r="Z10" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z10" s="0"/>
       <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
+      <c r="AB10" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0"/>
       <c r="AE10" s="0"/>
@@ -5322,9 +5327,7 @@
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
       <c r="AI10" s="0"/>
-      <c r="AJ10" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="0"/>
       <c r="AK10" s="0"/>
       <c r="AL10" s="0"/>
       <c r="AM10" s="0"/>
@@ -5335,13 +5338,10 @@
       <c r="AR10" s="0"/>
       <c r="AS10" s="0"/>
       <c r="AT10" s="0"/>
-      <c r="AU10" s="0"/>
-      <c r="AV10" s="0"/>
-      <c r="AW10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>9</v>
@@ -5349,37 +5349,37 @@
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="0"/>
+      <c r="E11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I11" s="0"/>
-      <c r="J11" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
-      <c r="Q11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="7"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
+      <c r="V11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X11" s="0"/>
       <c r="Y11" s="0"/>
       <c r="Z11" s="0"/>
@@ -5387,9 +5387,7 @@
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
       <c r="AD11" s="0"/>
-      <c r="AE11" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
       <c r="AG11" s="0"/>
       <c r="AH11" s="0"/>
@@ -5405,13 +5403,10 @@
       <c r="AR11" s="0"/>
       <c r="AS11" s="0"/>
       <c r="AT11" s="0"/>
-      <c r="AU11" s="0"/>
-      <c r="AV11" s="0"/>
-      <c r="AW11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>9</v>
@@ -5419,8 +5414,12 @@
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+      <c r="E12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
@@ -5428,15 +5427,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0"/>
@@ -5444,17 +5453,19 @@
       <c r="W12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Z12" s="0"/>
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
       <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
+      <c r="AF12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AG12" s="0"/>
       <c r="AH12" s="0"/>
       <c r="AI12" s="0"/>
@@ -5469,13 +5480,10 @@
       <c r="AR12" s="0"/>
       <c r="AS12" s="0"/>
       <c r="AT12" s="0"/>
-      <c r="AU12" s="0"/>
-      <c r="AV12" s="0"/>
-      <c r="AW12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>9</v>
@@ -5483,22 +5491,34 @@
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
+      <c r="E13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0"/>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="0"/>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O13" s="0" t="n">
         <v>1</v>
       </c>
@@ -5508,32 +5528,34 @@
       <c r="Q13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="0"/>
+      <c r="V13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
-      <c r="AF13" s="0"/>
+      <c r="AF13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AG13" s="0"/>
       <c r="AH13" s="0"/>
-      <c r="AI13" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI13" s="0"/>
       <c r="AJ13" s="0"/>
       <c r="AK13" s="0"/>
       <c r="AL13" s="0"/>
@@ -5545,13 +5567,10 @@
       <c r="AR13" s="0"/>
       <c r="AS13" s="0"/>
       <c r="AT13" s="0"/>
-      <c r="AU13" s="0"/>
-      <c r="AV13" s="0"/>
-      <c r="AW13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>9</v>
@@ -5559,67 +5578,69 @@
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0" t="n">
-        <v>1</v>
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P14" s="0"/>
       <c r="Q14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>1</v>
+      <c r="U14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="Y14" s="0"/>
-      <c r="Z14" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
-      <c r="AD14" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD14" s="0"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
       <c r="AG14" s="0"/>
       <c r="AH14" s="0"/>
-      <c r="AI14" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="0"/>
       <c r="AJ14" s="0"/>
       <c r="AK14" s="0"/>
       <c r="AL14" s="0"/>
@@ -5631,9 +5652,6 @@
       <c r="AR14" s="0"/>
       <c r="AS14" s="0"/>
       <c r="AT14" s="0"/>
-      <c r="AU14" s="0"/>
-      <c r="AV14" s="0"/>
-      <c r="AW14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
@@ -5655,50 +5673,44 @@
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
       <c r="U15" s="0"/>
-      <c r="V15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1" t="n">
-        <v>3</v>
+      <c r="V15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z15" s="0"/>
       <c r="AA15" s="0"/>
@@ -5721,9 +5733,6 @@
       <c r="AR15" s="0"/>
       <c r="AS15" s="0"/>
       <c r="AT15" s="0"/>
-      <c r="AU15" s="0"/>
-      <c r="AV15" s="0"/>
-      <c r="AW15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
@@ -5742,49 +5751,39 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I16" s="0"/>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
+      <c r="P16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="Q16" s="0"/>
-      <c r="R16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0"/>
       <c r="V16" s="0"/>
-      <c r="W16" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
@@ -5805,13 +5804,10 @@
       <c r="AR16" s="0"/>
       <c r="AS16" s="0"/>
       <c r="AT16" s="0"/>
-      <c r="AU16" s="0"/>
-      <c r="AV16" s="0"/>
-      <c r="AW16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>9</v>
@@ -5819,44 +5815,48 @@
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I17" s="0"/>
-      <c r="J17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
-      <c r="Q17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="0"/>
-      <c r="S17" s="6"/>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0"/>
       <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
+      <c r="W17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y17" s="0"/>
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
@@ -5879,24 +5879,25 @@
       <c r="AR17" s="0"/>
       <c r="AS17" s="0"/>
       <c r="AT17" s="0"/>
-      <c r="AU17" s="0"/>
-      <c r="AV17" s="0"/>
-      <c r="AW17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="G18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -5911,7 +5912,9 @@
       <c r="L18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="0"/>
+      <c r="M18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
@@ -5919,19 +5922,21 @@
       <c r="R18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S18" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="S18" s="0"/>
       <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y18" s="0"/>
       <c r="Z18" s="0"/>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -5953,42 +5958,31 @@
       <c r="AR18" s="0"/>
       <c r="AS18" s="0"/>
       <c r="AT18" s="0"/>
-      <c r="AU18" s="0"/>
-      <c r="AV18" s="0"/>
-      <c r="AW18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>30.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
       <c r="M19" s="0" t="n">
         <v>1</v>
       </c>
@@ -5996,29 +5990,25 @@
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
-      <c r="V19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
       <c r="AC19" s="0"/>
-      <c r="AD19" s="0"/>
+      <c r="AD19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
       <c r="AG19" s="0"/>
@@ -6035,13 +6025,10 @@
       <c r="AR19" s="0"/>
       <c r="AS19" s="0"/>
       <c r="AT19" s="0"/>
-      <c r="AU19" s="0"/>
-      <c r="AV19" s="0"/>
-      <c r="AW19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>9</v>
@@ -6049,43 +6036,55 @@
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="E20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" s="0"/>
       <c r="R20" s="0"/>
-      <c r="S20" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0"/>
       <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
+      <c r="W20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X20" s="0"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
-      <c r="AC20" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
-      <c r="AG20" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="0"/>
       <c r="AH20" s="0"/>
       <c r="AI20" s="0"/>
       <c r="AJ20" s="0"/>
@@ -6099,16 +6098,13 @@
       <c r="AR20" s="0"/>
       <c r="AS20" s="0"/>
       <c r="AT20" s="0"/>
-      <c r="AU20" s="0"/>
-      <c r="AV20" s="0"/>
-      <c r="AW20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
@@ -6125,9 +6121,7 @@
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" s="0"/>
       <c r="J21" s="0" t="n">
         <v>1</v>
       </c>
@@ -6137,22 +6131,24 @@
       <c r="L21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M21" s="0"/>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="0"/>
       <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0"/>
       <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="0"/>
       <c r="Y21" s="0"/>
       <c r="Z21" s="0"/>
       <c r="AA21" s="0"/>
@@ -6175,16 +6171,13 @@
       <c r="AR21" s="0"/>
       <c r="AS21" s="0"/>
       <c r="AT21" s="0"/>
-      <c r="AU21" s="0"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -6206,29 +6199,29 @@
         <v>1</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L22" s="0"/>
       <c r="M22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="V22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="0"/>
       <c r="Y22" s="0"/>
       <c r="Z22" s="0"/>
       <c r="AA22" s="0"/>
@@ -6251,13 +6244,10 @@
       <c r="AR22" s="0"/>
       <c r="AS22" s="0"/>
       <c r="AT22" s="0"/>
-      <c r="AU22" s="0"/>
-      <c r="AV22" s="0"/>
-      <c r="AW22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>9</v>
@@ -6266,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>3</v>
@@ -6281,14 +6271,18 @@
       <c r="J23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
+      <c r="P23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" s="0" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6290,9 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0"/>
-      <c r="V23" s="0"/>
+      <c r="V23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="W23" s="0" t="n">
         <v>1</v>
       </c>
@@ -6305,7 +6301,9 @@
       </c>
       <c r="Y23" s="0"/>
       <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
+      <c r="AA23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB23" s="0"/>
       <c r="AC23" s="0"/>
       <c r="AD23" s="0"/>
@@ -6325,13 +6323,10 @@
       <c r="AR23" s="0"/>
       <c r="AS23" s="0"/>
       <c r="AT23" s="0"/>
-      <c r="AU23" s="0"/>
-      <c r="AV23" s="0"/>
-      <c r="AW23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>9</v>
@@ -6339,38 +6334,26 @@
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>3</v>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="0"/>
-      <c r="J24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="0"/>
@@ -6378,19 +6361,13 @@
       <c r="W24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
       <c r="Z24" s="0"/>
       <c r="AA24" s="0"/>
       <c r="AB24" s="0"/>
       <c r="AC24" s="0"/>
-      <c r="AD24" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD24" s="0"/>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0"/>
       <c r="AG24" s="0"/>
@@ -6407,13 +6384,10 @@
       <c r="AR24" s="0"/>
       <c r="AS24" s="0"/>
       <c r="AT24" s="0"/>
-      <c r="AU24" s="0"/>
-      <c r="AV24" s="0"/>
-      <c r="AW24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>9</v>
@@ -6426,36 +6400,36 @@
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
+      <c r="O25" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P25" s="0"/>
-      <c r="Q25" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="0"/>
       <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="0"/>
-      <c r="V25" s="0"/>
+      <c r="V25" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="W25" s="0"/>
-      <c r="X25" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X25" s="0"/>
       <c r="Y25" s="0"/>
       <c r="Z25" s="0"/>
       <c r="AA25" s="0"/>
       <c r="AB25" s="0"/>
       <c r="AC25" s="0"/>
       <c r="AD25" s="0"/>
-      <c r="AE25" s="0"/>
+      <c r="AE25" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF25" s="0"/>
       <c r="AG25" s="0"/>
       <c r="AH25" s="0"/>
@@ -6471,13 +6445,10 @@
       <c r="AR25" s="0"/>
       <c r="AS25" s="0"/>
       <c r="AT25" s="0"/>
-      <c r="AU25" s="0"/>
-      <c r="AV25" s="0"/>
-      <c r="AW25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>9</v>
@@ -6485,31 +6456,41 @@
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
+      <c r="E26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="0"/>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="N26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0"/>
       <c r="Q26" s="0"/>
       <c r="R26" s="0"/>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="V26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="0"/>
       <c r="X26" s="0"/>
       <c r="Y26" s="0"/>
       <c r="Z26" s="0"/>
@@ -6517,12 +6498,12 @@
       <c r="AB26" s="0"/>
       <c r="AC26" s="0"/>
       <c r="AD26" s="0"/>
-      <c r="AE26" s="0"/>
+      <c r="AE26" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF26" s="0"/>
       <c r="AG26" s="0"/>
-      <c r="AH26" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH26" s="0"/>
       <c r="AI26" s="0"/>
       <c r="AJ26" s="0"/>
       <c r="AK26" s="0"/>
@@ -6535,13 +6516,10 @@
       <c r="AR26" s="0"/>
       <c r="AS26" s="0"/>
       <c r="AT26" s="0"/>
-      <c r="AU26" s="0"/>
-      <c r="AV26" s="0"/>
-      <c r="AW26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>9</v>
@@ -6549,8 +6527,12 @@
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
+      <c r="E27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
@@ -6568,31 +6550,33 @@
       <c r="O27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0"/>
       <c r="V27" s="0"/>
-      <c r="W27" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W27" s="0"/>
       <c r="X27" s="0"/>
       <c r="Y27" s="0"/>
       <c r="Z27" s="0"/>
       <c r="AA27" s="0"/>
       <c r="AB27" s="0"/>
       <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
+      <c r="AD27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AG27" s="0"/>
-      <c r="AH27" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH27" s="0"/>
       <c r="AI27" s="0"/>
       <c r="AJ27" s="0"/>
       <c r="AK27" s="0"/>
@@ -6605,13 +6589,10 @@
       <c r="AR27" s="0"/>
       <c r="AS27" s="0"/>
       <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>9</v>
@@ -6619,53 +6600,69 @@
       <c r="D28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
+      <c r="E28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="0"/>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="0"/>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="0"/>
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
+      <c r="V28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X28" s="0"/>
       <c r="Y28" s="0"/>
       <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+      <c r="AA28" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB28" s="0"/>
       <c r="AC28" s="0"/>
-      <c r="AD28" s="0"/>
-      <c r="AE28" s="0"/>
-      <c r="AF28" s="0"/>
+      <c r="AD28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AG28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AH28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
       <c r="AJ28" s="0"/>
       <c r="AK28" s="0"/>
       <c r="AL28" s="0"/>
@@ -6677,13 +6674,10 @@
       <c r="AR28" s="0"/>
       <c r="AS28" s="0"/>
       <c r="AT28" s="0"/>
-      <c r="AU28" s="0"/>
-      <c r="AV28" s="0"/>
-      <c r="AW28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>9</v>
@@ -6691,8 +6685,12 @@
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
+      <c r="E29" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
@@ -6702,55 +6700,47 @@
       <c r="I29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" s="0"/>
       <c r="K29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="0"/>
+      <c r="N29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0"/>
-      <c r="V29" s="0"/>
+      <c r="V29" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="W29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X29" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X29" s="0"/>
       <c r="Y29" s="0"/>
       <c r="Z29" s="0"/>
       <c r="AA29" s="0"/>
       <c r="AB29" s="0"/>
       <c r="AC29" s="0"/>
-      <c r="AD29" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD29" s="0"/>
       <c r="AE29" s="0"/>
       <c r="AF29" s="0"/>
-      <c r="AG29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
       <c r="AK29" s="0"/>
       <c r="AL29" s="0"/>
       <c r="AM29" s="0"/>
@@ -6761,13 +6751,10 @@
       <c r="AR29" s="0"/>
       <c r="AS29" s="0"/>
       <c r="AT29" s="0"/>
-      <c r="AU29" s="0"/>
-      <c r="AV29" s="0"/>
-      <c r="AW29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>9</v>
@@ -6775,21 +6762,21 @@
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
+      <c r="E30" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" s="0"/>
       <c r="J30" s="0"/>
-      <c r="K30" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -6800,31 +6787,29 @@
         <v>1</v>
       </c>
       <c r="Q30" s="0"/>
-      <c r="R30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0"/>
       <c r="V30" s="0"/>
       <c r="W30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X30" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X30" s="0"/>
       <c r="Y30" s="0"/>
       <c r="Z30" s="0"/>
       <c r="AA30" s="0"/>
       <c r="AB30" s="0"/>
       <c r="AC30" s="0"/>
-      <c r="AD30" s="0"/>
+      <c r="AD30" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE30" s="0"/>
       <c r="AF30" s="0"/>
       <c r="AG30" s="0"/>
-      <c r="AH30" s="0"/>
+      <c r="AH30" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI30" s="0"/>
       <c r="AJ30" s="0"/>
       <c r="AK30" s="0"/>
@@ -6837,13 +6822,10 @@
       <c r="AR30" s="0"/>
       <c r="AS30" s="0"/>
       <c r="AT30" s="0"/>
-      <c r="AU30" s="0"/>
-      <c r="AV30" s="0"/>
-      <c r="AW30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>9</v>
@@ -6851,7 +6833,9 @@
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="0"/>
+      <c r="E31" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="n">
         <v>1</v>
@@ -6865,39 +6849,41 @@
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
+      <c r="O31" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q31" s="0"/>
       <c r="R31" s="0"/>
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0"/>
       <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="0"/>
       <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
+      <c r="Z31" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA31" s="0"/>
       <c r="AB31" s="0"/>
       <c r="AC31" s="0"/>
-      <c r="AD31" s="0"/>
+      <c r="AD31" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE31" s="0"/>
       <c r="AF31" s="0"/>
-      <c r="AG31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI31" s="0"/>
       <c r="AJ31" s="0"/>
-      <c r="AK31" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK31" s="0"/>
       <c r="AL31" s="0"/>
       <c r="AM31" s="0"/>
       <c r="AN31" s="0"/>
@@ -6907,13 +6893,10 @@
       <c r="AR31" s="0"/>
       <c r="AS31" s="0"/>
       <c r="AT31" s="0"/>
-      <c r="AU31" s="0"/>
-      <c r="AV31" s="0"/>
-      <c r="AW31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>9</v>
@@ -6921,14 +6904,16 @@
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
+      <c r="E32" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -6939,37 +6924,37 @@
       <c r="P32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q32" s="0"/>
       <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0"/>
       <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" s="0"/>
       <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
+      <c r="Z32" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA32" s="0"/>
       <c r="AB32" s="0"/>
-      <c r="AC32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="0"/>
-      <c r="AE32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF32" s="0"/>
-      <c r="AG32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI32" s="0"/>
       <c r="AJ32" s="0"/>
-      <c r="AK32" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK32" s="0"/>
       <c r="AL32" s="0"/>
       <c r="AM32" s="0"/>
       <c r="AN32" s="0"/>
@@ -6979,13 +6964,10 @@
       <c r="AR32" s="0"/>
       <c r="AS32" s="0"/>
       <c r="AT32" s="0"/>
-      <c r="AU32" s="0"/>
-      <c r="AV32" s="0"/>
-      <c r="AW32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>9</v>
@@ -6993,53 +6975,61 @@
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
+      <c r="E33" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H33" s="0"/>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
-      <c r="M33" s="0"/>
+      <c r="M33" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="0"/>
       <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0"/>
       <c r="V33" s="0"/>
       <c r="W33" s="0"/>
-      <c r="X33" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X33" s="0"/>
       <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
+      <c r="Z33" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA33" s="0"/>
       <c r="AB33" s="0"/>
-      <c r="AC33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF33" s="0"/>
-      <c r="AG33" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG33" s="0"/>
       <c r="AH33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI33" s="0"/>
       <c r="AJ33" s="0"/>
-      <c r="AK33" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK33" s="0"/>
       <c r="AL33" s="0"/>
       <c r="AM33" s="0"/>
       <c r="AN33" s="0"/>
@@ -7049,13 +7039,10 @@
       <c r="AR33" s="0"/>
       <c r="AS33" s="0"/>
       <c r="AT33" s="0"/>
-      <c r="AU33" s="0"/>
-      <c r="AV33" s="0"/>
-      <c r="AW33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>9</v>
@@ -7063,57 +7050,69 @@
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
+      <c r="E34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="0"/>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="0"/>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L34" s="0"/>
       <c r="M34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
+      <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P34" s="0"/>
-      <c r="Q34" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q34" s="0"/>
       <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" s="0"/>
       <c r="U34" s="0"/>
       <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
+      <c r="W34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X34" s="0"/>
       <c r="Y34" s="0"/>
       <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
+      <c r="AA34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB34" s="0"/>
-      <c r="AC34" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC34" s="0"/>
       <c r="AD34" s="0"/>
-      <c r="AE34" s="0"/>
+      <c r="AE34" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF34" s="0"/>
       <c r="AG34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AH34" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH34" s="0"/>
       <c r="AI34" s="0"/>
       <c r="AJ34" s="0"/>
-      <c r="AK34" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK34" s="0"/>
       <c r="AL34" s="0"/>
       <c r="AM34" s="0"/>
       <c r="AN34" s="0"/>
@@ -7123,60 +7122,47 @@
       <c r="AR34" s="0"/>
       <c r="AS34" s="0"/>
       <c r="AT34" s="0"/>
-      <c r="AU34" s="0"/>
-      <c r="AV34" s="0"/>
-      <c r="AW34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
+        <v>19</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
       <c r="L35" s="0"/>
-      <c r="M35" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="M35" s="0"/>
       <c r="N35" s="0"/>
-      <c r="O35" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O35" s="0"/>
       <c r="P35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="0"/>
       <c r="R35" s="0"/>
       <c r="S35" s="0"/>
-      <c r="T35" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="T35" s="0"/>
       <c r="U35" s="0"/>
       <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" s="0"/>
       <c r="Y35" s="0"/>
       <c r="Z35" s="0"/>
       <c r="AA35" s="0"/>
@@ -7185,16 +7171,18 @@
       <c r="AD35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AE35" s="0"/>
+      <c r="AE35" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF35" s="0"/>
-      <c r="AG35" s="0"/>
+      <c r="AG35" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AH35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI35" s="0"/>
-      <c r="AJ35" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ35" s="0"/>
       <c r="AK35" s="0"/>
       <c r="AL35" s="0"/>
       <c r="AM35" s="0"/>
@@ -7205,20 +7193,23 @@
       <c r="AR35" s="0"/>
       <c r="AS35" s="0"/>
       <c r="AT35" s="0"/>
-      <c r="AU35" s="0"/>
-      <c r="AV35" s="0"/>
-      <c r="AW35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
@@ -7230,40 +7221,36 @@
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="0"/>
       <c r="R36" s="0"/>
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0"/>
       <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" s="0"/>
       <c r="Y36" s="0"/>
       <c r="Z36" s="0"/>
       <c r="AA36" s="0"/>
       <c r="AB36" s="0"/>
       <c r="AC36" s="0"/>
       <c r="AD36" s="0"/>
-      <c r="AE36" s="0"/>
+      <c r="AE36" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF36" s="0"/>
-      <c r="AG36" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG36" s="0"/>
       <c r="AH36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI36" s="0"/>
-      <c r="AJ36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ36" s="0"/>
+      <c r="AK36" s="0"/>
       <c r="AL36" s="0"/>
       <c r="AM36" s="0"/>
       <c r="AN36" s="0"/>
@@ -7273,13 +7260,10 @@
       <c r="AR36" s="0"/>
       <c r="AS36" s="0"/>
       <c r="AT36" s="0"/>
-      <c r="AU36" s="0"/>
-      <c r="AV36" s="0"/>
-      <c r="AW36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>9</v>
@@ -7287,23 +7271,29 @@
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
+      <c r="E37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="G37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
-      <c r="Q37" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q37" s="0"/>
       <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
@@ -7322,14 +7312,10 @@
       <c r="AE37" s="0"/>
       <c r="AF37" s="0"/>
       <c r="AG37" s="0"/>
-      <c r="AH37" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH37" s="0"/>
       <c r="AI37" s="0"/>
       <c r="AJ37" s="0"/>
-      <c r="AK37" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK37" s="0"/>
       <c r="AL37" s="0"/>
       <c r="AM37" s="0"/>
       <c r="AN37" s="0"/>
@@ -7339,13 +7325,10 @@
       <c r="AR37" s="0"/>
       <c r="AS37" s="0"/>
       <c r="AT37" s="0"/>
-      <c r="AU37" s="0"/>
-      <c r="AV37" s="0"/>
-      <c r="AW37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>9</v>
@@ -7354,49 +7337,67 @@
         <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L38" s="0"/>
-      <c r="M38" s="0"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
+      <c r="M38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0"/>
       <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
+      <c r="W38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X38" s="0"/>
-      <c r="Y38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="0"/>
       <c r="AB38" s="0"/>
       <c r="AC38" s="0"/>
-      <c r="AD38" s="0"/>
-      <c r="AE38" s="0"/>
+      <c r="AD38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF38" s="0"/>
       <c r="AG38" s="0"/>
-      <c r="AH38" s="0"/>
+      <c r="AH38" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI38" s="0"/>
       <c r="AJ38" s="0"/>
       <c r="AK38" s="0"/>
@@ -7409,13 +7410,10 @@
       <c r="AR38" s="0"/>
       <c r="AS38" s="0"/>
       <c r="AT38" s="0"/>
-      <c r="AU38" s="0"/>
-      <c r="AV38" s="0"/>
-      <c r="AW38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>9</v>
@@ -7423,67 +7421,49 @@
       <c r="D39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
+      <c r="E39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="G39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H39" s="0"/>
       <c r="I39" s="0"/>
-      <c r="J39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
       <c r="L39" s="0"/>
-      <c r="M39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" s="0"/>
       <c r="N39" s="0"/>
-      <c r="O39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
       <c r="R39" s="0"/>
-      <c r="S39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0"/>
       <c r="V39" s="0"/>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" s="0"/>
       <c r="Y39" s="0"/>
       <c r="Z39" s="0"/>
       <c r="AA39" s="0"/>
       <c r="AB39" s="0"/>
-      <c r="AC39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="0"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE39" s="0"/>
       <c r="AF39" s="0"/>
-      <c r="AG39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG39" s="0"/>
+      <c r="AH39" s="0"/>
       <c r="AI39" s="0"/>
       <c r="AJ39" s="0"/>
-      <c r="AK39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK39" s="0"/>
       <c r="AL39" s="0"/>
       <c r="AM39" s="0"/>
       <c r="AN39" s="0"/>
@@ -7493,13 +7473,10 @@
       <c r="AR39" s="0"/>
       <c r="AS39" s="0"/>
       <c r="AT39" s="0"/>
-      <c r="AU39" s="0"/>
-      <c r="AV39" s="0"/>
-      <c r="AW39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>9</v>
@@ -7507,42 +7484,62 @@
       <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
+      <c r="E40" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
-      <c r="N40" s="0"/>
-      <c r="O40" s="0"/>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
+      <c r="Q40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R40" s="0"/>
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0"/>
       <c r="V40" s="0"/>
-      <c r="W40" s="0"/>
-      <c r="X40" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" s="0"/>
       <c r="Y40" s="0"/>
       <c r="Z40" s="0"/>
       <c r="AA40" s="0"/>
       <c r="AB40" s="0"/>
       <c r="AC40" s="0"/>
       <c r="AD40" s="0"/>
-      <c r="AE40" s="0"/>
+      <c r="AE40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF40" s="0"/>
       <c r="AG40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AH40" s="0"/>
+      <c r="AH40" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI40" s="0"/>
       <c r="AJ40" s="0"/>
       <c r="AK40" s="0"/>
@@ -7555,75 +7552,80 @@
       <c r="AR40" s="0"/>
       <c r="AS40" s="0"/>
       <c r="AT40" s="0"/>
-      <c r="AU40" s="0"/>
-      <c r="AV40" s="0"/>
-      <c r="AW40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="0"/>
-      <c r="M41" s="0"/>
+      <c r="D41" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="N41" s="0"/>
-      <c r="O41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P41" s="0"/>
       <c r="Q41" s="0"/>
-      <c r="R41" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
-      <c r="U41" s="0"/>
-      <c r="V41" s="0"/>
+      <c r="U41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="W41" s="0"/>
-      <c r="X41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="0"/>
+      <c r="X41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="Z41" s="0"/>
       <c r="AA41" s="0"/>
       <c r="AB41" s="0"/>
-      <c r="AC41" s="0"/>
+      <c r="AC41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AD41" s="0"/>
       <c r="AE41" s="0"/>
       <c r="AF41" s="0"/>
       <c r="AG41" s="0"/>
-      <c r="AH41" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH41" s="0"/>
       <c r="AI41" s="0"/>
-      <c r="AJ41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ41" s="0"/>
+      <c r="AK41" s="0"/>
       <c r="AL41" s="0"/>
       <c r="AM41" s="0"/>
       <c r="AN41" s="0"/>
@@ -7633,13 +7635,10 @@
       <c r="AR41" s="0"/>
       <c r="AS41" s="0"/>
       <c r="AT41" s="0"/>
-      <c r="AU41" s="0"/>
-      <c r="AV41" s="0"/>
-      <c r="AW41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>9</v>
@@ -7657,54 +7656,56 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" s="0"/>
       <c r="J42" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N42" s="0"/>
-      <c r="O42" s="0"/>
+      <c r="L42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="P42" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q42" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="R42" s="0"/>
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0"/>
-      <c r="V42" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V42" s="0"/>
       <c r="W42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" s="0"/>
-      <c r="Y42" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="0"/>
       <c r="Z42" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA42" s="0"/>
       <c r="AB42" s="0"/>
       <c r="AC42" s="0"/>
-      <c r="AD42" s="0"/>
+      <c r="AD42" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AE42" s="0"/>
-      <c r="AF42" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF42" s="0"/>
       <c r="AG42" s="0"/>
       <c r="AH42" s="0"/>
       <c r="AI42" s="0"/>
@@ -7719,81 +7720,62 @@
       <c r="AR42" s="0"/>
       <c r="AS42" s="0"/>
       <c r="AT42" s="0"/>
-      <c r="AU42" s="0"/>
-      <c r="AV42" s="0"/>
-      <c r="AW42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D43" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="n">
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="0"/>
-      <c r="J43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="0"/>
-      <c r="O43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0"/>
       <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y43" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="W43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" s="0"/>
+      <c r="Y43" s="0"/>
       <c r="Z43" s="0"/>
       <c r="AA43" s="0"/>
-      <c r="AB43" s="0"/>
-      <c r="AC43" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="AB43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="0"/>
       <c r="AD43" s="0"/>
       <c r="AE43" s="0"/>
       <c r="AF43" s="0"/>
-      <c r="AG43" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG43" s="0"/>
       <c r="AH43" s="0"/>
       <c r="AI43" s="0"/>
       <c r="AJ43" s="0"/>
@@ -7807,13 +7789,10 @@
       <c r="AR43" s="0"/>
       <c r="AS43" s="0"/>
       <c r="AT43" s="0"/>
-      <c r="AU43" s="0"/>
-      <c r="AV43" s="0"/>
-      <c r="AW43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>9</v>
@@ -7821,8 +7800,12 @@
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
+      <c r="E44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
@@ -7831,39 +7814,53 @@
       </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L44" s="0"/>
       <c r="M44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N44" s="0"/>
+      <c r="N44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T44" s="0"/>
       <c r="U44" s="0"/>
       <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="0"/>
       <c r="Y44" s="0"/>
       <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
+      <c r="AA44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB44" s="0"/>
       <c r="AC44" s="0"/>
-      <c r="AD44" s="0"/>
+      <c r="AD44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AF44" s="0"/>
-      <c r="AG44" s="0"/>
+      <c r="AG44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AH44" s="0"/>
       <c r="AI44" s="0"/>
       <c r="AJ44" s="0"/>
@@ -7877,13 +7874,10 @@
       <c r="AR44" s="0"/>
       <c r="AS44" s="0"/>
       <c r="AT44" s="0"/>
-      <c r="AU44" s="0"/>
-      <c r="AV44" s="0"/>
-      <c r="AW44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>9</v>
@@ -7891,43 +7885,45 @@
       <c r="D45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0" t="n">
+      <c r="E45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="0"/>
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N45" s="0"/>
-      <c r="O45" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O45" s="0"/>
       <c r="P45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="0"/>
-      <c r="R45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
       <c r="U45" s="0"/>
       <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
+      <c r="W45" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X45" s="0" t="n">
         <v>1</v>
       </c>
@@ -7936,21 +7932,13 @@
       <c r="AA45" s="0"/>
       <c r="AB45" s="0"/>
       <c r="AC45" s="0"/>
-      <c r="AD45" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD45" s="0"/>
       <c r="AE45" s="0"/>
       <c r="AF45" s="0"/>
-      <c r="AG45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG45" s="0"/>
+      <c r="AH45" s="0"/>
       <c r="AI45" s="0"/>
-      <c r="AJ45" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ45" s="0"/>
       <c r="AK45" s="0"/>
       <c r="AL45" s="0"/>
       <c r="AM45" s="0"/>
@@ -7961,13 +7949,10 @@
       <c r="AR45" s="0"/>
       <c r="AS45" s="0"/>
       <c r="AT45" s="0"/>
-      <c r="AU45" s="0"/>
-      <c r="AV45" s="0"/>
-      <c r="AW45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>9</v>
@@ -7975,55 +7960,47 @@
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1" t="n">
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P46" s="0"/>
-      <c r="Q46" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q46" s="0"/>
       <c r="R46" s="0"/>
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="0"/>
-      <c r="V46" s="0"/>
+      <c r="V46" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="W46" s="0"/>
-      <c r="X46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X46" s="0"/>
+      <c r="Y46" s="0"/>
       <c r="Z46" s="0"/>
       <c r="AA46" s="0"/>
       <c r="AB46" s="0"/>
       <c r="AC46" s="0"/>
       <c r="AD46" s="0"/>
-      <c r="AE46" s="0"/>
+      <c r="AE46" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF46" s="0"/>
       <c r="AG46" s="0"/>
       <c r="AH46" s="0"/>
@@ -8039,13 +8016,10 @@
       <c r="AR46" s="0"/>
       <c r="AS46" s="0"/>
       <c r="AT46" s="0"/>
-      <c r="AU46" s="0"/>
-      <c r="AV46" s="0"/>
-      <c r="AW46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>9</v>
@@ -8053,25 +8027,27 @@
       <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0" t="n">
-        <v>1</v>
+      <c r="E47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
-      <c r="O47" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O47" s="0"/>
       <c r="P47" s="0" t="n">
         <v>1</v>
       </c>
@@ -8084,7 +8060,9 @@
       <c r="W47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X47" s="0"/>
+      <c r="X47" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y47" s="0"/>
       <c r="Z47" s="0"/>
       <c r="AA47" s="0"/>
@@ -8109,13 +8087,10 @@
       <c r="AR47" s="0"/>
       <c r="AS47" s="0"/>
       <c r="AT47" s="0"/>
-      <c r="AU47" s="0"/>
-      <c r="AV47" s="0"/>
-      <c r="AW47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>9</v>
@@ -8123,43 +8098,45 @@
       <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>2</v>
+      <c r="E48" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" s="0"/>
-      <c r="L48" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
-      <c r="O48" s="0"/>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P48" s="0"/>
-      <c r="Q48" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q48" s="0"/>
       <c r="R48" s="0"/>
       <c r="S48" s="0"/>
       <c r="T48" s="0"/>
-      <c r="U48" s="0"/>
-      <c r="V48" s="0"/>
+      <c r="U48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="W48" s="0"/>
       <c r="X48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Y48" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y48" s="0"/>
       <c r="Z48" s="0"/>
       <c r="AA48" s="0" t="n">
         <v>1</v>
@@ -8173,9 +8150,7 @@
       <c r="AH48" s="0"/>
       <c r="AI48" s="0"/>
       <c r="AJ48" s="0"/>
-      <c r="AK48" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK48" s="0"/>
       <c r="AL48" s="0"/>
       <c r="AM48" s="0"/>
       <c r="AN48" s="0"/>
@@ -8185,13 +8160,10 @@
       <c r="AR48" s="0"/>
       <c r="AS48" s="0"/>
       <c r="AT48" s="0"/>
-      <c r="AU48" s="0"/>
-      <c r="AV48" s="0"/>
-      <c r="AW48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>9</v>
@@ -8199,8 +8171,12 @@
       <c r="D49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
+      <c r="E49" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
@@ -8208,12 +8184,12 @@
         <v>1</v>
       </c>
       <c r="I49" s="0"/>
-      <c r="J49" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" s="0"/>
       <c r="K49" s="0"/>
       <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
+      <c r="M49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0" t="n">
@@ -8224,27 +8200,27 @@
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="0"/>
-      <c r="V49" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="V49" s="0"/>
       <c r="W49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="X49" s="0"/>
-      <c r="Y49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA49" s="0"/>
       <c r="AB49" s="0"/>
       <c r="AC49" s="0"/>
-      <c r="AD49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF49" s="0"/>
       <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
+      <c r="AH49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI49" s="0"/>
       <c r="AJ49" s="0"/>
       <c r="AK49" s="0"/>
@@ -8254,16 +8230,10 @@
       <c r="AO49" s="0"/>
       <c r="AP49" s="0"/>
       <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0"/>
-      <c r="AT49" s="0"/>
-      <c r="AU49" s="0"/>
-      <c r="AV49" s="0"/>
-      <c r="AW49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>9</v>
@@ -8271,8 +8241,12 @@
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
+      <c r="E50" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G50" s="0" t="n">
         <v>1</v>
       </c>
@@ -8280,67 +8254,72 @@
         <v>1</v>
       </c>
       <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L50" s="0"/>
       <c r="M50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P50" s="0"/>
       <c r="Q50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R50" s="0"/>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="S50" s="0"/>
       <c r="T50" s="0"/>
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
-      <c r="X50" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X50" s="0"/>
       <c r="Y50" s="0"/>
       <c r="Z50" s="0"/>
       <c r="AA50" s="0"/>
       <c r="AB50" s="0"/>
-      <c r="AC50" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC50" s="0"/>
       <c r="AD50" s="0"/>
       <c r="AE50" s="0"/>
       <c r="AF50" s="0"/>
       <c r="AG50" s="0"/>
-      <c r="AH50" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH50" s="0"/>
       <c r="AI50" s="0"/>
       <c r="AJ50" s="0"/>
-      <c r="AK50" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK50" s="0"/>
       <c r="AL50" s="0"/>
       <c r="AM50" s="0"/>
       <c r="AN50" s="0"/>
       <c r="AO50" s="0"/>
       <c r="AP50" s="0"/>
       <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0" t="n">
+      <c r="D51" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="0" t="n">
@@ -8350,34 +8329,28 @@
       <c r="J51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K51" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="K51" s="0"/>
       <c r="L51" s="0"/>
-      <c r="M51" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="M51" s="0"/>
       <c r="N51" s="0"/>
-      <c r="O51" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O51" s="0"/>
       <c r="P51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q51" s="0"/>
-      <c r="R51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="0"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
+      <c r="X51" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
+      <c r="Z51" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA51" s="0"/>
       <c r="AB51" s="0"/>
       <c r="AC51" s="0"/>
@@ -8395,16 +8368,15 @@
       <c r="AO51" s="0"/>
       <c r="AP51" s="0"/>
       <c r="AQ51" s="0"/>
-      <c r="AR51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D52" s="8" t="n">
+      <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="n">
@@ -8414,24 +8386,20 @@
         <v>3</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="0"/>
-      <c r="J52" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" s="0"/>
       <c r="K52" s="0"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
       <c r="P52" s="0"/>
-      <c r="Q52" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q52" s="0"/>
       <c r="R52" s="0"/>
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
@@ -8439,15 +8407,11 @@
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
       <c r="X52" s="0"/>
-      <c r="Y52" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y52" s="0"/>
       <c r="Z52" s="0"/>
       <c r="AA52" s="0"/>
       <c r="AB52" s="0"/>
-      <c r="AC52" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC52" s="0"/>
       <c r="AD52" s="0"/>
       <c r="AE52" s="0"/>
       <c r="AF52" s="0"/>
@@ -8462,11 +8426,10 @@
       <c r="AO52" s="0"/>
       <c r="AP52" s="0"/>
       <c r="AQ52" s="0"/>
-      <c r="AR52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>9</v>
@@ -8474,14 +8437,14 @@
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>3</v>
+      <c r="E53" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -8492,7 +8455,9 @@
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
+      <c r="O53" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P53" s="0"/>
       <c r="Q53" s="0"/>
       <c r="R53" s="0"/>
@@ -8500,7 +8465,9 @@
       <c r="T53" s="0"/>
       <c r="U53" s="0"/>
       <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
+      <c r="W53" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X53" s="0"/>
       <c r="Y53" s="0"/>
       <c r="Z53" s="0"/>
@@ -8508,18 +8475,33 @@
       <c r="AB53" s="0"/>
       <c r="AC53" s="0"/>
       <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0"/>
-      <c r="AI53" s="0"/>
+      <c r="AE53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ53" s="0"/>
       <c r="AK53" s="0"/>
       <c r="AL53" s="0"/>
+      <c r="AM53" s="0"/>
+      <c r="AN53" s="0"/>
+      <c r="AO53" s="0"/>
+      <c r="AP53" s="0"/>
+      <c r="AQ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>9</v>
@@ -8527,8 +8509,12 @@
       <c r="D54" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
+      <c r="E54" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G54" s="0" t="n">
         <v>1</v>
       </c>
@@ -8536,15 +8522,19 @@
         <v>1</v>
       </c>
       <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" s="0"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="N54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="0"/>
       <c r="Q54" s="0"/>
       <c r="R54" s="0"/>
       <c r="S54" s="0"/>
@@ -8552,37 +8542,32 @@
       <c r="U54" s="0"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
-      <c r="X54" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X54" s="0"/>
       <c r="Y54" s="0"/>
       <c r="Z54" s="0"/>
       <c r="AA54" s="0"/>
       <c r="AB54" s="0"/>
       <c r="AC54" s="0"/>
       <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
+      <c r="AE54" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF54" s="0"/>
       <c r="AG54" s="0"/>
-      <c r="AH54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH54" s="0"/>
+      <c r="AI54" s="0"/>
+      <c r="AJ54" s="0"/>
+      <c r="AK54" s="0"/>
+      <c r="AL54" s="0"/>
+      <c r="AM54" s="0"/>
+      <c r="AN54" s="0"/>
+      <c r="AO54" s="0"/>
+      <c r="AP54" s="0"/>
+      <c r="AQ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>9</v>
@@ -8590,10 +8575,14 @@
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
+      <c r="E55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>1</v>
@@ -8606,9 +8595,7 @@
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
-      <c r="O55" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O55" s="0"/>
       <c r="P55" s="0" t="n">
         <v>1</v>
       </c>
@@ -8618,14 +8605,20 @@
       <c r="T55" s="0"/>
       <c r="U55" s="0"/>
       <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0"/>
+      <c r="W55" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y55" s="0"/>
       <c r="Z55" s="0"/>
       <c r="AA55" s="0"/>
       <c r="AB55" s="0"/>
       <c r="AC55" s="0"/>
-      <c r="AD55" s="0"/>
+      <c r="AD55" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="AE55" s="0"/>
       <c r="AF55" s="0"/>
       <c r="AG55" s="0"/>
@@ -8636,10 +8629,15 @@
       <c r="AJ55" s="0"/>
       <c r="AK55" s="0"/>
       <c r="AL55" s="0"/>
+      <c r="AM55" s="0"/>
+      <c r="AN55" s="0"/>
+      <c r="AO55" s="0"/>
+      <c r="AP55" s="0"/>
+      <c r="AQ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>9</v>
@@ -8647,43 +8645,45 @@
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>2</v>
+      <c r="E56" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I56" s="0"/>
-      <c r="J56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L56" s="0"/>
-      <c r="M56" s="0"/>
+      <c r="M56" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N56" s="0"/>
       <c r="O56" s="0"/>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="0"/>
       <c r="R56" s="0"/>
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="0"/>
       <c r="V56" s="0"/>
-      <c r="W56" s="0"/>
-      <c r="X56" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y56" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="0"/>
       <c r="Z56" s="0"/>
       <c r="AA56" s="0"/>
       <c r="AB56" s="0"/>
@@ -8691,26 +8691,21 @@
       <c r="AD56" s="0"/>
       <c r="AE56" s="0"/>
       <c r="AF56" s="0"/>
-      <c r="AG56" s="0" t="s">
-        <v>65</v>
-      </c>
+      <c r="AG56" s="0"/>
       <c r="AH56" s="0"/>
       <c r="AI56" s="0"/>
       <c r="AJ56" s="0"/>
-      <c r="AK56" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK56" s="0"/>
       <c r="AL56" s="0"/>
       <c r="AM56" s="0"/>
       <c r="AN56" s="0"/>
       <c r="AO56" s="0"/>
       <c r="AP56" s="0"/>
       <c r="AQ56" s="0"/>
-      <c r="AR56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>9</v>
@@ -8723,37 +8718,29 @@
       <c r="G57" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H57" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H57" s="0"/>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
-      <c r="K57" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="K57" s="0"/>
       <c r="L57" s="0"/>
-      <c r="M57" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="M57" s="0"/>
       <c r="N57" s="0"/>
       <c r="O57" s="0"/>
       <c r="P57" s="0"/>
-      <c r="Q57" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q57" s="0"/>
       <c r="R57" s="0"/>
       <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
+      <c r="T57" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="U57" s="0"/>
       <c r="V57" s="0"/>
       <c r="W57" s="0"/>
-      <c r="X57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="0"/>
+      <c r="X57" s="0"/>
+      <c r="Y57" s="0"/>
+      <c r="Z57" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA57" s="0"/>
       <c r="AB57" s="0"/>
       <c r="AC57" s="0"/>
@@ -8761,16 +8748,22 @@
       <c r="AE57" s="0"/>
       <c r="AF57" s="0"/>
       <c r="AG57" s="0"/>
-      <c r="AH57" s="0"/>
+      <c r="AH57" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI57" s="0"/>
       <c r="AJ57" s="0"/>
       <c r="AK57" s="0"/>
       <c r="AL57" s="0"/>
       <c r="AM57" s="0"/>
+      <c r="AN57" s="0"/>
+      <c r="AO57" s="0"/>
+      <c r="AP57" s="0"/>
+      <c r="AQ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>9</v>
@@ -8778,16 +8771,26 @@
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
+      <c r="E58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="G58" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="0"/>
+      <c r="H58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
+      <c r="L58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
       <c r="O58" s="0"/>
@@ -8796,34 +8799,39 @@
       <c r="R58" s="0"/>
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
-      <c r="U58" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="U58" s="0"/>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
       <c r="X58" s="0"/>
       <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="Z58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AB58" s="0"/>
-      <c r="AC58" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC58" s="0"/>
       <c r="AD58" s="0"/>
       <c r="AE58" s="0"/>
       <c r="AF58" s="0"/>
       <c r="AG58" s="0"/>
-      <c r="AH58" s="0"/>
+      <c r="AH58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI58" s="0"/>
       <c r="AJ58" s="0"/>
-      <c r="AK58" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK58" s="0"/>
       <c r="AL58" s="0"/>
+      <c r="AM58" s="0"/>
+      <c r="AN58" s="0"/>
+      <c r="AO58" s="0"/>
+      <c r="AP58" s="0"/>
+      <c r="AQ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>9</v>
@@ -8831,8 +8839,12 @@
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
+      <c r="E59" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G59" s="0" t="n">
         <v>1</v>
       </c>
@@ -8847,10 +8859,16 @@
       <c r="L59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M59" s="0"/>
+      <c r="M59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
+      <c r="O59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Q59" s="0"/>
       <c r="R59" s="0"/>
       <c r="S59" s="0"/>
@@ -8860,32 +8878,32 @@
       <c r="W59" s="0"/>
       <c r="X59" s="0"/>
       <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
+      <c r="Z59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA59" s="0"/>
       <c r="AB59" s="0"/>
-      <c r="AC59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
       <c r="AE59" s="0"/>
       <c r="AF59" s="0"/>
       <c r="AG59" s="0"/>
-      <c r="AH59" s="0"/>
+      <c r="AH59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AI59" s="0"/>
       <c r="AJ59" s="0"/>
-      <c r="AK59" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK59" s="0"/>
       <c r="AL59" s="0"/>
       <c r="AM59" s="0"/>
       <c r="AN59" s="0"/>
       <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>9</v>
@@ -8893,8 +8911,12 @@
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
+      <c r="E60" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G60" s="0" t="n">
         <v>1</v>
       </c>
@@ -8905,35 +8927,37 @@
       <c r="J60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
+      <c r="K60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q60" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q60" s="0"/>
       <c r="R60" s="0"/>
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="0"/>
       <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0"/>
+      <c r="W60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y60" s="0"/>
       <c r="Z60" s="0"/>
       <c r="AA60" s="0"/>
       <c r="AB60" s="0"/>
-      <c r="AC60" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC60" s="0"/>
       <c r="AD60" s="0"/>
       <c r="AE60" s="0"/>
       <c r="AF60" s="0"/>
@@ -8941,47 +8965,51 @@
       <c r="AH60" s="0"/>
       <c r="AI60" s="0"/>
       <c r="AJ60" s="0"/>
-      <c r="AK60" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK60" s="0"/>
       <c r="AL60" s="0"/>
       <c r="AM60" s="0"/>
+      <c r="AN60" s="0"/>
+      <c r="AO60" s="0"/>
+      <c r="AP60" s="0"/>
+      <c r="AQ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="0" t="n">
+      <c r="D61" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I61" s="0"/>
-      <c r="J61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="0"/>
-      <c r="M61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="N61" s="0"/>
-      <c r="O61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="0" t="n">
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="R61" s="0"/>
@@ -8989,11 +9017,13 @@
       <c r="T61" s="0"/>
       <c r="U61" s="0"/>
       <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="0" t="n">
+      <c r="W61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z61" s="0"/>
@@ -9009,15 +9039,20 @@
       <c r="AJ61" s="0"/>
       <c r="AK61" s="0"/>
       <c r="AL61" s="0"/>
+      <c r="AM61" s="0"/>
+      <c r="AN61" s="0"/>
+      <c r="AO61" s="0"/>
+      <c r="AP61" s="0"/>
+      <c r="AQ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="n">
@@ -9027,45 +9062,48 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H62" s="0"/>
       <c r="I62" s="0"/>
-      <c r="K62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
+      <c r="N62" s="0"/>
       <c r="O62" s="0"/>
       <c r="P62" s="0"/>
-      <c r="R62" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="0"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
-      <c r="X62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="X62" s="0"/>
+      <c r="Y62" s="0"/>
+      <c r="Z62" s="0"/>
+      <c r="AA62" s="0"/>
+      <c r="AB62" s="0"/>
+      <c r="AC62" s="0"/>
       <c r="AD62" s="0"/>
+      <c r="AE62" s="0"/>
+      <c r="AF62" s="0"/>
+      <c r="AG62" s="0"/>
+      <c r="AH62" s="0"/>
+      <c r="AI62" s="0"/>
+      <c r="AJ62" s="0"/>
+      <c r="AK62" s="0"/>
+      <c r="AL62" s="0"/>
+      <c r="AM62" s="0"/>
+      <c r="AN62" s="0"/>
+      <c r="AO62" s="0"/>
+      <c r="AP62" s="0"/>
+      <c r="AQ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>9</v>
@@ -9073,30 +9111,67 @@
       <c r="D63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" s="0"/>
-      <c r="I63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" s="0"/>
-      <c r="O63" s="0"/>
-      <c r="P63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="0"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0"/>
       <c r="Y63" s="0"/>
       <c r="Z63" s="0"/>
-      <c r="AD63" s="0"/>
+      <c r="AA63" s="0"/>
+      <c r="AB63" s="0"/>
+      <c r="AC63" s="0"/>
+      <c r="AD63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="0"/>
+      <c r="AG63" s="0"/>
+      <c r="AH63" s="0"/>
+      <c r="AI63" s="0"/>
+      <c r="AJ63" s="0"/>
+      <c r="AK63" s="0"/>
+      <c r="AL63" s="0"/>
+      <c r="AM63" s="0"/>
+      <c r="AN63" s="0"/>
+      <c r="AO63" s="0"/>
+      <c r="AP63" s="0"/>
+      <c r="AQ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>9</v>
@@ -9104,8 +9179,12 @@
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
+      <c r="E64" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G64" s="0" t="n">
         <v>1</v>
       </c>
@@ -9118,19 +9197,21 @@
       <c r="J64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K64" s="0"/>
+      <c r="K64" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L64" s="0"/>
       <c r="M64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N64" s="0"/>
-      <c r="O64" s="0"/>
-      <c r="P64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="N64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
       <c r="R64" s="0"/>
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
@@ -9143,24 +9224,28 @@
       <c r="AA64" s="0"/>
       <c r="AB64" s="0"/>
       <c r="AC64" s="0"/>
-      <c r="AD64" s="0"/>
-      <c r="AE64" s="0"/>
+      <c r="AD64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF64" s="0"/>
-      <c r="AG64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG64" s="0"/>
+      <c r="AH64" s="0"/>
       <c r="AI64" s="0"/>
       <c r="AJ64" s="0"/>
       <c r="AK64" s="0"/>
       <c r="AL64" s="0"/>
       <c r="AM64" s="0"/>
+      <c r="AN64" s="0"/>
+      <c r="AO64" s="0"/>
+      <c r="AP64" s="0"/>
+      <c r="AQ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>9</v>
@@ -9168,40 +9253,38 @@
       <c r="D65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="G65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
       <c r="J65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K65" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="K65" s="0"/>
       <c r="L65" s="0"/>
-      <c r="M65" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="M65" s="0"/>
       <c r="N65" s="0"/>
       <c r="O65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P65" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P65" s="0"/>
       <c r="Q65" s="0"/>
       <c r="R65" s="0"/>
       <c r="S65" s="0"/>
       <c r="T65" s="0"/>
-      <c r="U65" s="0"/>
-      <c r="V65" s="0"/>
+      <c r="U65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="W65" s="0"/>
       <c r="X65" s="0"/>
       <c r="Y65" s="0"/>
@@ -9212,35 +9295,42 @@
       <c r="AD65" s="0"/>
       <c r="AE65" s="0"/>
       <c r="AF65" s="0"/>
-      <c r="AG65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI65" s="0"/>
+      <c r="AG65" s="0"/>
+      <c r="AH65" s="0"/>
+      <c r="AI65" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ65" s="0"/>
       <c r="AK65" s="0"/>
       <c r="AL65" s="0"/>
+      <c r="AM65" s="0"/>
+      <c r="AN65" s="0"/>
+      <c r="AO65" s="0"/>
+      <c r="AP65" s="0"/>
+      <c r="AQ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="C66" s="9" t="n">
         <v>9</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="0"/>
+        <v>28</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>28</v>
+      </c>
       <c r="G66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H66" s="0"/>
+      <c r="H66" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I66" s="0"/>
       <c r="J66" s="0" t="n">
         <v>1</v>
@@ -9249,21 +9339,17 @@
       <c r="L66" s="0"/>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
-      <c r="O66" s="0"/>
-      <c r="P66" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="0"/>
       <c r="Q66" s="0"/>
       <c r="R66" s="0"/>
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
       <c r="U66" s="0"/>
-      <c r="V66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W66" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0"/>
       <c r="X66" s="0"/>
       <c r="Y66" s="0"/>
       <c r="Z66" s="0"/>
@@ -9271,20 +9357,25 @@
       <c r="AB66" s="0"/>
       <c r="AC66" s="0"/>
       <c r="AD66" s="0"/>
-      <c r="AE66" s="0"/>
+      <c r="AE66" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF66" s="0"/>
       <c r="AG66" s="0"/>
       <c r="AH66" s="0"/>
       <c r="AI66" s="0"/>
       <c r="AJ66" s="0"/>
       <c r="AK66" s="0"/>
-      <c r="AL66" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL66" s="0"/>
+      <c r="AM66" s="0"/>
+      <c r="AN66" s="0"/>
+      <c r="AO66" s="0"/>
+      <c r="AP66" s="0"/>
+      <c r="AQ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C67" s="9" t="n">
         <v>9</v>
@@ -9292,15 +9383,21 @@
       <c r="D67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
+      <c r="E67" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>28</v>
+      </c>
       <c r="G67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I67" s="0"/>
+      <c r="I67" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J67" s="0" t="n">
         <v>1</v>
       </c>
@@ -9308,13 +9405,15 @@
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
       <c r="N67" s="0"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="0"/>
       <c r="Q67" s="0"/>
       <c r="R67" s="0"/>
-      <c r="S67" s="0"/>
+      <c r="S67" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T67" s="0"/>
       <c r="U67" s="0"/>
       <c r="V67" s="0"/>
@@ -9326,12 +9425,16 @@
       <c r="AB67" s="0"/>
       <c r="AC67" s="0"/>
       <c r="AD67" s="0"/>
-      <c r="AE67" s="0"/>
-      <c r="AF67" s="0"/>
-      <c r="AG67" s="0"/>
-      <c r="AH67" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="0"/>
       <c r="AI67" s="0"/>
       <c r="AJ67" s="0"/>
       <c r="AK67" s="0"/>
@@ -9344,42 +9447,46 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="C68" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
+      <c r="E68" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="G68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
       <c r="J68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K68" s="0"/>
+      <c r="K68" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L68" s="0"/>
       <c r="M68" s="0"/>
       <c r="N68" s="0"/>
-      <c r="O68" s="0"/>
-      <c r="P68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="0"/>
+      <c r="O68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="0"/>
+      <c r="Q68" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R68" s="0"/>
-      <c r="S68" s="0"/>
-      <c r="T68" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="S68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" s="0"/>
       <c r="U68" s="0"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
@@ -9390,18 +9497,16 @@
       <c r="AB68" s="0"/>
       <c r="AC68" s="0"/>
       <c r="AD68" s="0"/>
-      <c r="AE68" s="0"/>
+      <c r="AE68" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF68" s="0"/>
-      <c r="AG68" s="0"/>
-      <c r="AH68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ68" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="0"/>
+      <c r="AI68" s="0"/>
+      <c r="AJ68" s="0"/>
       <c r="AK68" s="0"/>
       <c r="AL68" s="0"/>
       <c r="AM68" s="0"/>
@@ -9412,7 +9517,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>9</v>
@@ -9420,34 +9525,32 @@
       <c r="D69" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
+      <c r="E69" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="G69" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H69" s="0"/>
+      <c r="H69" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I69" s="0"/>
-      <c r="J69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
       <c r="L69" s="0"/>
       <c r="M69" s="0"/>
       <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-      <c r="P69" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="0"/>
       <c r="Q69" s="0"/>
-      <c r="R69" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="R69" s="0"/>
       <c r="S69" s="0"/>
-      <c r="T69" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="T69" s="0"/>
       <c r="U69" s="0"/>
       <c r="V69" s="0"/>
       <c r="W69" s="0"/>
@@ -9458,30 +9561,22 @@
       <c r="AB69" s="0"/>
       <c r="AC69" s="0"/>
       <c r="AD69" s="0"/>
-      <c r="AE69" s="0"/>
+      <c r="AE69" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF69" s="0"/>
       <c r="AG69" s="0"/>
-      <c r="AH69" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH69" s="0"/>
       <c r="AI69" s="0"/>
-      <c r="AJ69" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ69" s="0"/>
       <c r="AK69" s="0"/>
       <c r="AL69" s="0"/>
       <c r="AM69" s="0"/>
       <c r="AN69" s="0"/>
-      <c r="AO69" s="0"/>
-      <c r="AP69" s="0"/>
-      <c r="AQ69" s="0"/>
-      <c r="AR69" s="0"/>
-      <c r="AS69" s="0"/>
-      <c r="AT69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>9</v>
@@ -9489,8 +9584,12 @@
       <c r="D70" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
+      <c r="E70" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="G70" s="0" t="n">
         <v>1</v>
       </c>
@@ -9498,15 +9597,17 @@
         <v>1</v>
       </c>
       <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
+      <c r="J70" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
       <c r="M70" s="0"/>
       <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="0"/>
       <c r="Q70" s="0"/>
       <c r="R70" s="0"/>
       <c r="S70" s="0"/>
@@ -9521,7 +9622,9 @@
       <c r="AB70" s="0"/>
       <c r="AC70" s="0"/>
       <c r="AD70" s="0"/>
-      <c r="AE70" s="0"/>
+      <c r="AE70" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF70" s="0"/>
       <c r="AG70" s="0"/>
       <c r="AH70" s="0" t="n">
@@ -9536,7 +9639,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>9</v>
@@ -9544,8 +9647,12 @@
       <c r="D71" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
+      <c r="E71" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="G71" s="0" t="n">
         <v>1</v>
       </c>
@@ -9553,24 +9660,28 @@
         <v>1</v>
       </c>
       <c r="I71" s="0"/>
-      <c r="J71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L71" s="0"/>
       <c r="M71" s="0"/>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-      <c r="P71" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="0"/>
       <c r="Q71" s="0"/>
       <c r="R71" s="0"/>
       <c r="S71" s="0"/>
       <c r="T71" s="0"/>
       <c r="U71" s="0"/>
       <c r="V71" s="0"/>
-      <c r="W71" s="0"/>
+      <c r="W71" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X71" s="0"/>
       <c r="Y71" s="0"/>
       <c r="Z71" s="0"/>
@@ -9579,26 +9690,23 @@
       <c r="AC71" s="0"/>
       <c r="AD71" s="0"/>
       <c r="AE71" s="0"/>
-      <c r="AF71" s="0"/>
-      <c r="AG71" s="0"/>
-      <c r="AH71" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="0"/>
       <c r="AI71" s="0"/>
       <c r="AJ71" s="0"/>
-      <c r="AK71" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK71" s="0"/>
       <c r="AL71" s="0"/>
       <c r="AM71" s="0"/>
       <c r="AN71" s="0"/>
-      <c r="AO71" s="0"/>
-      <c r="AP71" s="0"/>
-      <c r="AQ71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>9</v>
@@ -9615,13 +9723,15 @@
         <v>1</v>
       </c>
       <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="0"/>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
-      <c r="N72" s="0"/>
+      <c r="N72" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O72" s="0" t="n">
         <v>1</v>
       </c>
@@ -9634,32 +9744,34 @@
       <c r="T72" s="0"/>
       <c r="U72" s="0"/>
       <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X72" s="0"/>
       <c r="Y72" s="0"/>
       <c r="Z72" s="0"/>
       <c r="AA72" s="0"/>
       <c r="AB72" s="0"/>
       <c r="AC72" s="0"/>
-      <c r="AD72" s="0"/>
-      <c r="AE72" s="0"/>
+      <c r="AD72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF72" s="0"/>
       <c r="AG72" s="0"/>
       <c r="AH72" s="0"/>
-      <c r="AI72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ72" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI72" s="0"/>
+      <c r="AJ72" s="0"/>
       <c r="AK72" s="0"/>
       <c r="AL72" s="0"/>
+      <c r="AM72" s="0"/>
+      <c r="AN72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>9</v>
@@ -9667,15 +9779,19 @@
       <c r="D73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
+      <c r="E73" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="G73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" s="0"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="J73" s="0" t="n">
         <v>1</v>
       </c>
@@ -9686,76 +9802,80 @@
       <c r="O73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
       <c r="R73" s="0"/>
-      <c r="S73" s="0"/>
+      <c r="S73" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T73" s="0"/>
       <c r="U73" s="0"/>
       <c r="V73" s="0"/>
-      <c r="W73" s="0"/>
-      <c r="X73" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="W73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" s="0"/>
       <c r="Y73" s="0"/>
       <c r="Z73" s="0"/>
       <c r="AA73" s="0"/>
       <c r="AB73" s="0"/>
       <c r="AC73" s="0"/>
       <c r="AD73" s="0"/>
-      <c r="AE73" s="0"/>
+      <c r="AE73" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AF73" s="0"/>
       <c r="AG73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AH73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI73" s="0"/>
+      <c r="AH73" s="0"/>
+      <c r="AI73" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ73" s="0"/>
       <c r="AK73" s="0"/>
       <c r="AL73" s="0"/>
+      <c r="AM73" s="0"/>
+      <c r="AN73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="G74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
       <c r="K74" s="0"/>
-      <c r="L74" s="0"/>
-      <c r="M74" s="0"/>
+      <c r="L74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N74" s="0"/>
-      <c r="O74" s="0"/>
-      <c r="P74" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="0"/>
       <c r="Q74" s="0"/>
       <c r="R74" s="0"/>
       <c r="S74" s="0"/>
-      <c r="T74" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="T74" s="0"/>
       <c r="U74" s="0"/>
       <c r="V74" s="0"/>
       <c r="W74" s="0"/>
@@ -9771,60 +9891,68 @@
       <c r="AE74" s="0"/>
       <c r="AF74" s="0"/>
       <c r="AG74" s="0"/>
-      <c r="AH74" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH74" s="0"/>
       <c r="AI74" s="0"/>
-      <c r="AJ74" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AJ74" s="0"/>
       <c r="AK74" s="0"/>
-      <c r="AL74" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AL74" s="0"/>
+      <c r="AM74" s="0"/>
+      <c r="AN74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0" t="n">
-        <v>1</v>
+      <c r="D75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="0"/>
+      <c r="J75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L75" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M75" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="M75" s="0"/>
       <c r="N75" s="0"/>
-      <c r="O75" s="0"/>
-      <c r="P75" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="O75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" s="0"/>
       <c r="Q75" s="0"/>
       <c r="R75" s="0"/>
       <c r="S75" s="0"/>
       <c r="T75" s="0"/>
       <c r="U75" s="0"/>
       <c r="V75" s="0"/>
-      <c r="W75" s="0"/>
-      <c r="X75" s="0"/>
-      <c r="Y75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z75" s="0"/>
+      <c r="W75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="0"/>
+      <c r="Z75" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AA75" s="0"/>
       <c r="AB75" s="0"/>
       <c r="AC75" s="0"/>
@@ -9834,14 +9962,23 @@
       <c r="AG75" s="0"/>
       <c r="AH75" s="0"/>
       <c r="AI75" s="0"/>
-      <c r="AJ75" s="0"/>
+      <c r="AJ75" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AK75" s="0"/>
-      <c r="AL75" s="0"/>
-      <c r="AM75" s="0"/>
+      <c r="AL75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN75" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>9</v>
@@ -9850,33 +9987,23 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H76" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="H76" s="0"/>
       <c r="I76" s="0"/>
-      <c r="J76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
       <c r="O76" s="0"/>
-      <c r="P76" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="P76" s="0"/>
       <c r="Q76" s="0"/>
       <c r="R76" s="0"/>
       <c r="S76" s="0"/>
@@ -9884,44 +10011,22 @@
       <c r="U76" s="0"/>
       <c r="V76" s="0"/>
       <c r="W76" s="0"/>
-      <c r="X76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="X76" s="0"/>
+      <c r="Y76" s="0"/>
       <c r="Z76" s="0"/>
       <c r="AA76" s="0"/>
       <c r="AB76" s="0"/>
-      <c r="AC76" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC76" s="0"/>
       <c r="AD76" s="0"/>
       <c r="AE76" s="0"/>
       <c r="AF76" s="0"/>
       <c r="AG76" s="0"/>
       <c r="AH76" s="0"/>
       <c r="AI76" s="0"/>
-      <c r="AJ76" s="0"/>
-      <c r="AK76" s="0"/>
-      <c r="AL76" s="0"/>
-      <c r="AM76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN76" s="0"/>
-      <c r="AO76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ76" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>9</v>
@@ -9930,29 +10035,66 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="O77" s="0"/>
+      <c r="H77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="0"/>
+      <c r="M77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" s="0"/>
+      <c r="U77" s="0"/>
       <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0"/>
+      <c r="W77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
+      <c r="Z77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="0"/>
+      <c r="AB77" s="0"/>
+      <c r="AC77" s="0"/>
       <c r="AD77" s="0"/>
+      <c r="AE77" s="0"/>
+      <c r="AF77" s="0"/>
+      <c r="AG77" s="0"/>
+      <c r="AH77" s="0"/>
+      <c r="AI77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>9</v>
@@ -9960,58 +10102,59 @@
       <c r="D78" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E78" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G78" s="1" t="n">
+      <c r="E78" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="F78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H78" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="I78" s="0"/>
       <c r="J78" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K78" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="K78" s="0"/>
       <c r="L78" s="0"/>
-      <c r="M78" s="0" t="n">
+      <c r="M78" s="0"/>
+      <c r="N78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O78" s="0"/>
-      <c r="P78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T78" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="P78" s="0"/>
+      <c r="Q78" s="0"/>
+      <c r="R78" s="0"/>
+      <c r="S78" s="0"/>
+      <c r="T78" s="0"/>
+      <c r="U78" s="0"/>
       <c r="V78" s="0"/>
-      <c r="W78" s="0"/>
-      <c r="X78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y78" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="W78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="0"/>
       <c r="Z78" s="0"/>
-      <c r="AB78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="0"/>
+      <c r="AC78" s="0"/>
       <c r="AD78" s="0"/>
+      <c r="AE78" s="0"/>
+      <c r="AF78" s="0"/>
+      <c r="AG78" s="0"/>
+      <c r="AH78" s="0"/>
+      <c r="AI78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>9</v>
@@ -10019,10 +10162,14 @@
       <c r="D79" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0" t="n">
-        <v>1</v>
+      <c r="E79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1</v>
@@ -10031,147 +10178,83 @@
       <c r="J79" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K79" s="0"/>
+      <c r="K79" s="0" t="n">
+        <v>30</v>
+      </c>
       <c r="L79" s="0"/>
       <c r="M79" s="0"/>
       <c r="N79" s="0"/>
       <c r="O79" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="0"/>
+      <c r="P79" s="0" t="n">
+        <v>30</v>
+      </c>
       <c r="Q79" s="0"/>
       <c r="R79" s="0"/>
       <c r="S79" s="0"/>
       <c r="T79" s="0"/>
       <c r="U79" s="0"/>
       <c r="V79" s="0"/>
-      <c r="W79" s="0"/>
+      <c r="W79" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="X79" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Y79" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y79" s="0"/>
       <c r="Z79" s="0"/>
-      <c r="AA79" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA79" s="0"/>
       <c r="AB79" s="0"/>
       <c r="AC79" s="0"/>
-      <c r="AD79" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD79" s="0"/>
       <c r="AE79" s="0"/>
       <c r="AF79" s="0"/>
       <c r="AG79" s="0"/>
       <c r="AH79" s="0"/>
       <c r="AI79" s="0"/>
-      <c r="AJ79" s="0"/>
-      <c r="AK79" s="0"/>
-      <c r="AL79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="8" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="0"/>
-      <c r="J80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="M80" s="0"/>
-      <c r="N80" s="0"/>
-      <c r="O80" s="0"/>
-      <c r="P80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="0"/>
-      <c r="R80" s="0"/>
-      <c r="S80" s="0"/>
-      <c r="T80" s="0"/>
-      <c r="U80" s="0"/>
-      <c r="V80" s="0"/>
-      <c r="W80" s="0"/>
-      <c r="X80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="0"/>
-      <c r="AA80" s="0"/>
-      <c r="AB80" s="0"/>
-      <c r="AC80" s="0"/>
-      <c r="AD80" s="0"/>
-      <c r="AE80" s="0"/>
-      <c r="AF80" s="0"/>
-      <c r="AG80" s="0"/>
-      <c r="AH80" s="0"/>
-      <c r="AI80" s="0"/>
-      <c r="AJ80" s="0"/>
-      <c r="AK80" s="0"/>
-      <c r="AL80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D81" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Functional Diversity/trait_matrix_refs.xlsx
+++ b/Functional Diversity/trait_matrix_refs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
   <si>
     <t xml:space="preserve">family</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t xml:space="preserve">Vanellus chilensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollandia rolland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterna vittata</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,6 +455,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -503,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,19 +541,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,45 +638,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:80"/>
+  <dimension ref="1:82"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8131" ySplit="2085" topLeftCell="M37" activePane="bottomLeft" state="split"/>
+      <pane xSplit="9195" ySplit="705" topLeftCell="M67" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
-      <selection pane="bottomRight" activeCell="M37" activeCellId="0" sqref="M37"/>
+      <selection pane="bottomLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
+      <selection pane="bottomRight" activeCell="M67" activeCellId="0" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="23.8928571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.96428571428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.58673469387755"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="4.05102040816327"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1021" min="31" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="31" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="0"/>
-      <c r="R2" s="6"/>
+      <c r="R2" s="0"/>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
@@ -1857,7 +1873,9 @@
       <c r="Q3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="6"/>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
@@ -2908,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="0"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="0"/>
       <c r="S4" s="0"/>
       <c r="T4" s="0"/>
       <c r="U4" s="0"/>
@@ -3957,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="0"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="0"/>
       <c r="S5" s="0"/>
       <c r="T5" s="0"/>
       <c r="U5" s="0"/>
@@ -5009,7 +5027,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="0"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="0"/>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
       <c r="U6" s="0"/>
@@ -5078,8 +5096,8 @@
       <c r="Q7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="0" t="n">
         <v>1</v>
@@ -5155,8 +5173,8 @@
       <c r="Q8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
         <v>1</v>
@@ -5232,8 +5250,10 @@
       </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="0"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" s="0"/>
       <c r="U9" s="0"/>
       <c r="V9" s="0" t="n">
@@ -5305,7 +5325,9 @@
       <c r="Q10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="S10" s="0" t="n">
         <v>3</v>
       </c>
@@ -5370,8 +5392,8 @@
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="n">
@@ -5445,8 +5467,10 @@
       <c r="Q12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" s="0"/>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
@@ -5528,8 +5552,10 @@
       <c r="Q13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="n">
@@ -5613,7 +5639,9 @@
       <c r="Q14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="S14" s="0" t="n">
         <v>1</v>
       </c>
@@ -5696,7 +5724,7 @@
       <c r="Q15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S15" s="0"/>
@@ -5775,7 +5803,7 @@
         <v>58</v>
       </c>
       <c r="Q16" s="0"/>
-      <c r="R16" s="6"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0"/>
@@ -7560,7 +7588,7 @@
       <c r="C41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="n">
@@ -7643,7 +7671,7 @@
       <c r="C42" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="n">
@@ -8310,7 +8338,7 @@
       <c r="C51" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D51" s="8" t="n">
+      <c r="D51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="n">
@@ -8980,7 +9008,7 @@
       <c r="C61" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D61" s="8" t="n">
+      <c r="D61" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="n">
@@ -9313,7 +9341,7 @@
       <c r="B66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C66" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D66" s="0" t="n">
@@ -9377,7 +9405,7 @@
       <c r="B67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="9" t="n">
+      <c r="C67" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D67" s="0" t="n">
@@ -9845,7 +9873,7 @@
       <c r="C74" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="0" t="n">
         <v>25</v>
       </c>
@@ -10221,7 +10249,7 @@
       <c r="C80" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D80" s="8" t="n">
+      <c r="D80" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="n">
@@ -10257,6 +10285,2102 @@
       <c r="AA80" s="1" t="n">
         <v>1</v>
       </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+      <c r="S81" s="0"/>
+      <c r="T81" s="0"/>
+      <c r="U81" s="0"/>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0"/>
+      <c r="X81" s="0"/>
+      <c r="Y81" s="0"/>
+      <c r="Z81" s="0"/>
+      <c r="AA81" s="0"/>
+      <c r="AB81" s="0"/>
+      <c r="AC81" s="0"/>
+      <c r="AD81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="0"/>
+      <c r="AG81" s="0"/>
+      <c r="AH81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="0"/>
+      <c r="AJ81" s="0"/>
+      <c r="AK81" s="0"/>
+      <c r="AL81" s="0"/>
+      <c r="AM81" s="0"/>
+      <c r="AN81" s="0"/>
+      <c r="AO81" s="0"/>
+      <c r="AP81" s="0"/>
+      <c r="AQ81" s="0"/>
+      <c r="AR81" s="0"/>
+      <c r="AS81" s="0"/>
+      <c r="AT81" s="0"/>
+      <c r="AU81" s="0"/>
+      <c r="AV81" s="0"/>
+      <c r="AW81" s="0"/>
+      <c r="AX81" s="0"/>
+      <c r="AY81" s="0"/>
+      <c r="AZ81" s="0"/>
+      <c r="BA81" s="0"/>
+      <c r="BB81" s="0"/>
+      <c r="BC81" s="0"/>
+      <c r="BD81" s="0"/>
+      <c r="BE81" s="0"/>
+      <c r="BF81" s="0"/>
+      <c r="BG81" s="0"/>
+      <c r="BH81" s="0"/>
+      <c r="BI81" s="0"/>
+      <c r="BJ81" s="0"/>
+      <c r="BK81" s="0"/>
+      <c r="BL81" s="0"/>
+      <c r="BM81" s="0"/>
+      <c r="BN81" s="0"/>
+      <c r="BO81" s="0"/>
+      <c r="BP81" s="0"/>
+      <c r="BQ81" s="0"/>
+      <c r="BR81" s="0"/>
+      <c r="BS81" s="0"/>
+      <c r="BT81" s="0"/>
+      <c r="BU81" s="0"/>
+      <c r="BV81" s="0"/>
+      <c r="BW81" s="0"/>
+      <c r="BX81" s="0"/>
+      <c r="BY81" s="0"/>
+      <c r="BZ81" s="0"/>
+      <c r="CA81" s="0"/>
+      <c r="CB81" s="0"/>
+      <c r="CC81" s="0"/>
+      <c r="CD81" s="0"/>
+      <c r="CE81" s="0"/>
+      <c r="CF81" s="0"/>
+      <c r="CG81" s="0"/>
+      <c r="CH81" s="0"/>
+      <c r="CI81" s="0"/>
+      <c r="CJ81" s="0"/>
+      <c r="CK81" s="0"/>
+      <c r="CL81" s="0"/>
+      <c r="CM81" s="0"/>
+      <c r="CN81" s="0"/>
+      <c r="CO81" s="0"/>
+      <c r="CP81" s="0"/>
+      <c r="CQ81" s="0"/>
+      <c r="CR81" s="0"/>
+      <c r="CS81" s="0"/>
+      <c r="CT81" s="0"/>
+      <c r="CU81" s="0"/>
+      <c r="CV81" s="0"/>
+      <c r="CW81" s="0"/>
+      <c r="CX81" s="0"/>
+      <c r="CY81" s="0"/>
+      <c r="CZ81" s="0"/>
+      <c r="DA81" s="0"/>
+      <c r="DB81" s="0"/>
+      <c r="DC81" s="0"/>
+      <c r="DD81" s="0"/>
+      <c r="DE81" s="0"/>
+      <c r="DF81" s="0"/>
+      <c r="DG81" s="0"/>
+      <c r="DH81" s="0"/>
+      <c r="DI81" s="0"/>
+      <c r="DJ81" s="0"/>
+      <c r="DK81" s="0"/>
+      <c r="DL81" s="0"/>
+      <c r="DM81" s="0"/>
+      <c r="DN81" s="0"/>
+      <c r="DO81" s="0"/>
+      <c r="DP81" s="0"/>
+      <c r="DQ81" s="0"/>
+      <c r="DR81" s="0"/>
+      <c r="DS81" s="0"/>
+      <c r="DT81" s="0"/>
+      <c r="DU81" s="0"/>
+      <c r="DV81" s="0"/>
+      <c r="DW81" s="0"/>
+      <c r="DX81" s="0"/>
+      <c r="DY81" s="0"/>
+      <c r="DZ81" s="0"/>
+      <c r="EA81" s="0"/>
+      <c r="EB81" s="0"/>
+      <c r="EC81" s="0"/>
+      <c r="ED81" s="0"/>
+      <c r="EE81" s="0"/>
+      <c r="EF81" s="0"/>
+      <c r="EG81" s="0"/>
+      <c r="EH81" s="0"/>
+      <c r="EI81" s="0"/>
+      <c r="EJ81" s="0"/>
+      <c r="EK81" s="0"/>
+      <c r="EL81" s="0"/>
+      <c r="EM81" s="0"/>
+      <c r="EN81" s="0"/>
+      <c r="EO81" s="0"/>
+      <c r="EP81" s="0"/>
+      <c r="EQ81" s="0"/>
+      <c r="ER81" s="0"/>
+      <c r="ES81" s="0"/>
+      <c r="ET81" s="0"/>
+      <c r="EU81" s="0"/>
+      <c r="EV81" s="0"/>
+      <c r="EW81" s="0"/>
+      <c r="EX81" s="0"/>
+      <c r="EY81" s="0"/>
+      <c r="EZ81" s="0"/>
+      <c r="FA81" s="0"/>
+      <c r="FB81" s="0"/>
+      <c r="FC81" s="0"/>
+      <c r="FD81" s="0"/>
+      <c r="FE81" s="0"/>
+      <c r="FF81" s="0"/>
+      <c r="FG81" s="0"/>
+      <c r="FH81" s="0"/>
+      <c r="FI81" s="0"/>
+      <c r="FJ81" s="0"/>
+      <c r="FK81" s="0"/>
+      <c r="FL81" s="0"/>
+      <c r="FM81" s="0"/>
+      <c r="FN81" s="0"/>
+      <c r="FO81" s="0"/>
+      <c r="FP81" s="0"/>
+      <c r="FQ81" s="0"/>
+      <c r="FR81" s="0"/>
+      <c r="FS81" s="0"/>
+      <c r="FT81" s="0"/>
+      <c r="FU81" s="0"/>
+      <c r="FV81" s="0"/>
+      <c r="FW81" s="0"/>
+      <c r="FX81" s="0"/>
+      <c r="FY81" s="0"/>
+      <c r="FZ81" s="0"/>
+      <c r="GA81" s="0"/>
+      <c r="GB81" s="0"/>
+      <c r="GC81" s="0"/>
+      <c r="GD81" s="0"/>
+      <c r="GE81" s="0"/>
+      <c r="GF81" s="0"/>
+      <c r="GG81" s="0"/>
+      <c r="GH81" s="0"/>
+      <c r="GI81" s="0"/>
+      <c r="GJ81" s="0"/>
+      <c r="GK81" s="0"/>
+      <c r="GL81" s="0"/>
+      <c r="GM81" s="0"/>
+      <c r="GN81" s="0"/>
+      <c r="GO81" s="0"/>
+      <c r="GP81" s="0"/>
+      <c r="GQ81" s="0"/>
+      <c r="GR81" s="0"/>
+      <c r="GS81" s="0"/>
+      <c r="GT81" s="0"/>
+      <c r="GU81" s="0"/>
+      <c r="GV81" s="0"/>
+      <c r="GW81" s="0"/>
+      <c r="GX81" s="0"/>
+      <c r="GY81" s="0"/>
+      <c r="GZ81" s="0"/>
+      <c r="HA81" s="0"/>
+      <c r="HB81" s="0"/>
+      <c r="HC81" s="0"/>
+      <c r="HD81" s="0"/>
+      <c r="HE81" s="0"/>
+      <c r="HF81" s="0"/>
+      <c r="HG81" s="0"/>
+      <c r="HH81" s="0"/>
+      <c r="HI81" s="0"/>
+      <c r="HJ81" s="0"/>
+      <c r="HK81" s="0"/>
+      <c r="HL81" s="0"/>
+      <c r="HM81" s="0"/>
+      <c r="HN81" s="0"/>
+      <c r="HO81" s="0"/>
+      <c r="HP81" s="0"/>
+      <c r="HQ81" s="0"/>
+      <c r="HR81" s="0"/>
+      <c r="HS81" s="0"/>
+      <c r="HT81" s="0"/>
+      <c r="HU81" s="0"/>
+      <c r="HV81" s="0"/>
+      <c r="HW81" s="0"/>
+      <c r="HX81" s="0"/>
+      <c r="HY81" s="0"/>
+      <c r="HZ81" s="0"/>
+      <c r="IA81" s="0"/>
+      <c r="IB81" s="0"/>
+      <c r="IC81" s="0"/>
+      <c r="ID81" s="0"/>
+      <c r="IE81" s="0"/>
+      <c r="IF81" s="0"/>
+      <c r="IG81" s="0"/>
+      <c r="IH81" s="0"/>
+      <c r="II81" s="0"/>
+      <c r="IJ81" s="0"/>
+      <c r="IK81" s="0"/>
+      <c r="IL81" s="0"/>
+      <c r="IM81" s="0"/>
+      <c r="IN81" s="0"/>
+      <c r="IO81" s="0"/>
+      <c r="IP81" s="0"/>
+      <c r="IQ81" s="0"/>
+      <c r="IR81" s="0"/>
+      <c r="IS81" s="0"/>
+      <c r="IT81" s="0"/>
+      <c r="IU81" s="0"/>
+      <c r="IV81" s="0"/>
+      <c r="IW81" s="0"/>
+      <c r="IX81" s="0"/>
+      <c r="IY81" s="0"/>
+      <c r="IZ81" s="0"/>
+      <c r="JA81" s="0"/>
+      <c r="JB81" s="0"/>
+      <c r="JC81" s="0"/>
+      <c r="JD81" s="0"/>
+      <c r="JE81" s="0"/>
+      <c r="JF81" s="0"/>
+      <c r="JG81" s="0"/>
+      <c r="JH81" s="0"/>
+      <c r="JI81" s="0"/>
+      <c r="JJ81" s="0"/>
+      <c r="JK81" s="0"/>
+      <c r="JL81" s="0"/>
+      <c r="JM81" s="0"/>
+      <c r="JN81" s="0"/>
+      <c r="JO81" s="0"/>
+      <c r="JP81" s="0"/>
+      <c r="JQ81" s="0"/>
+      <c r="JR81" s="0"/>
+      <c r="JS81" s="0"/>
+      <c r="JT81" s="0"/>
+      <c r="JU81" s="0"/>
+      <c r="JV81" s="0"/>
+      <c r="JW81" s="0"/>
+      <c r="JX81" s="0"/>
+      <c r="JY81" s="0"/>
+      <c r="JZ81" s="0"/>
+      <c r="KA81" s="0"/>
+      <c r="KB81" s="0"/>
+      <c r="KC81" s="0"/>
+      <c r="KD81" s="0"/>
+      <c r="KE81" s="0"/>
+      <c r="KF81" s="0"/>
+      <c r="KG81" s="0"/>
+      <c r="KH81" s="0"/>
+      <c r="KI81" s="0"/>
+      <c r="KJ81" s="0"/>
+      <c r="KK81" s="0"/>
+      <c r="KL81" s="0"/>
+      <c r="KM81" s="0"/>
+      <c r="KN81" s="0"/>
+      <c r="KO81" s="0"/>
+      <c r="KP81" s="0"/>
+      <c r="KQ81" s="0"/>
+      <c r="KR81" s="0"/>
+      <c r="KS81" s="0"/>
+      <c r="KT81" s="0"/>
+      <c r="KU81" s="0"/>
+      <c r="KV81" s="0"/>
+      <c r="KW81" s="0"/>
+      <c r="KX81" s="0"/>
+      <c r="KY81" s="0"/>
+      <c r="KZ81" s="0"/>
+      <c r="LA81" s="0"/>
+      <c r="LB81" s="0"/>
+      <c r="LC81" s="0"/>
+      <c r="LD81" s="0"/>
+      <c r="LE81" s="0"/>
+      <c r="LF81" s="0"/>
+      <c r="LG81" s="0"/>
+      <c r="LH81" s="0"/>
+      <c r="LI81" s="0"/>
+      <c r="LJ81" s="0"/>
+      <c r="LK81" s="0"/>
+      <c r="LL81" s="0"/>
+      <c r="LM81" s="0"/>
+      <c r="LN81" s="0"/>
+      <c r="LO81" s="0"/>
+      <c r="LP81" s="0"/>
+      <c r="LQ81" s="0"/>
+      <c r="LR81" s="0"/>
+      <c r="LS81" s="0"/>
+      <c r="LT81" s="0"/>
+      <c r="LU81" s="0"/>
+      <c r="LV81" s="0"/>
+      <c r="LW81" s="0"/>
+      <c r="LX81" s="0"/>
+      <c r="LY81" s="0"/>
+      <c r="LZ81" s="0"/>
+      <c r="MA81" s="0"/>
+      <c r="MB81" s="0"/>
+      <c r="MC81" s="0"/>
+      <c r="MD81" s="0"/>
+      <c r="ME81" s="0"/>
+      <c r="MF81" s="0"/>
+      <c r="MG81" s="0"/>
+      <c r="MH81" s="0"/>
+      <c r="MI81" s="0"/>
+      <c r="MJ81" s="0"/>
+      <c r="MK81" s="0"/>
+      <c r="ML81" s="0"/>
+      <c r="MM81" s="0"/>
+      <c r="MN81" s="0"/>
+      <c r="MO81" s="0"/>
+      <c r="MP81" s="0"/>
+      <c r="MQ81" s="0"/>
+      <c r="MR81" s="0"/>
+      <c r="MS81" s="0"/>
+      <c r="MT81" s="0"/>
+      <c r="MU81" s="0"/>
+      <c r="MV81" s="0"/>
+      <c r="MW81" s="0"/>
+      <c r="MX81" s="0"/>
+      <c r="MY81" s="0"/>
+      <c r="MZ81" s="0"/>
+      <c r="NA81" s="0"/>
+      <c r="NB81" s="0"/>
+      <c r="NC81" s="0"/>
+      <c r="ND81" s="0"/>
+      <c r="NE81" s="0"/>
+      <c r="NF81" s="0"/>
+      <c r="NG81" s="0"/>
+      <c r="NH81" s="0"/>
+      <c r="NI81" s="0"/>
+      <c r="NJ81" s="0"/>
+      <c r="NK81" s="0"/>
+      <c r="NL81" s="0"/>
+      <c r="NM81" s="0"/>
+      <c r="NN81" s="0"/>
+      <c r="NO81" s="0"/>
+      <c r="NP81" s="0"/>
+      <c r="NQ81" s="0"/>
+      <c r="NR81" s="0"/>
+      <c r="NS81" s="0"/>
+      <c r="NT81" s="0"/>
+      <c r="NU81" s="0"/>
+      <c r="NV81" s="0"/>
+      <c r="NW81" s="0"/>
+      <c r="NX81" s="0"/>
+      <c r="NY81" s="0"/>
+      <c r="NZ81" s="0"/>
+      <c r="OA81" s="0"/>
+      <c r="OB81" s="0"/>
+      <c r="OC81" s="0"/>
+      <c r="OD81" s="0"/>
+      <c r="OE81" s="0"/>
+      <c r="OF81" s="0"/>
+      <c r="OG81" s="0"/>
+      <c r="OH81" s="0"/>
+      <c r="OI81" s="0"/>
+      <c r="OJ81" s="0"/>
+      <c r="OK81" s="0"/>
+      <c r="OL81" s="0"/>
+      <c r="OM81" s="0"/>
+      <c r="ON81" s="0"/>
+      <c r="OO81" s="0"/>
+      <c r="OP81" s="0"/>
+      <c r="OQ81" s="0"/>
+      <c r="OR81" s="0"/>
+      <c r="OS81" s="0"/>
+      <c r="OT81" s="0"/>
+      <c r="OU81" s="0"/>
+      <c r="OV81" s="0"/>
+      <c r="OW81" s="0"/>
+      <c r="OX81" s="0"/>
+      <c r="OY81" s="0"/>
+      <c r="OZ81" s="0"/>
+      <c r="PA81" s="0"/>
+      <c r="PB81" s="0"/>
+      <c r="PC81" s="0"/>
+      <c r="PD81" s="0"/>
+      <c r="PE81" s="0"/>
+      <c r="PF81" s="0"/>
+      <c r="PG81" s="0"/>
+      <c r="PH81" s="0"/>
+      <c r="PI81" s="0"/>
+      <c r="PJ81" s="0"/>
+      <c r="PK81" s="0"/>
+      <c r="PL81" s="0"/>
+      <c r="PM81" s="0"/>
+      <c r="PN81" s="0"/>
+      <c r="PO81" s="0"/>
+      <c r="PP81" s="0"/>
+      <c r="PQ81" s="0"/>
+      <c r="PR81" s="0"/>
+      <c r="PS81" s="0"/>
+      <c r="PT81" s="0"/>
+      <c r="PU81" s="0"/>
+      <c r="PV81" s="0"/>
+      <c r="PW81" s="0"/>
+      <c r="PX81" s="0"/>
+      <c r="PY81" s="0"/>
+      <c r="PZ81" s="0"/>
+      <c r="QA81" s="0"/>
+      <c r="QB81" s="0"/>
+      <c r="QC81" s="0"/>
+      <c r="QD81" s="0"/>
+      <c r="QE81" s="0"/>
+      <c r="QF81" s="0"/>
+      <c r="QG81" s="0"/>
+      <c r="QH81" s="0"/>
+      <c r="QI81" s="0"/>
+      <c r="QJ81" s="0"/>
+      <c r="QK81" s="0"/>
+      <c r="QL81" s="0"/>
+      <c r="QM81" s="0"/>
+      <c r="QN81" s="0"/>
+      <c r="QO81" s="0"/>
+      <c r="QP81" s="0"/>
+      <c r="QQ81" s="0"/>
+      <c r="QR81" s="0"/>
+      <c r="QS81" s="0"/>
+      <c r="QT81" s="0"/>
+      <c r="QU81" s="0"/>
+      <c r="QV81" s="0"/>
+      <c r="QW81" s="0"/>
+      <c r="QX81" s="0"/>
+      <c r="QY81" s="0"/>
+      <c r="QZ81" s="0"/>
+      <c r="RA81" s="0"/>
+      <c r="RB81" s="0"/>
+      <c r="RC81" s="0"/>
+      <c r="RD81" s="0"/>
+      <c r="RE81" s="0"/>
+      <c r="RF81" s="0"/>
+      <c r="RG81" s="0"/>
+      <c r="RH81" s="0"/>
+      <c r="RI81" s="0"/>
+      <c r="RJ81" s="0"/>
+      <c r="RK81" s="0"/>
+      <c r="RL81" s="0"/>
+      <c r="RM81" s="0"/>
+      <c r="RN81" s="0"/>
+      <c r="RO81" s="0"/>
+      <c r="RP81" s="0"/>
+      <c r="RQ81" s="0"/>
+      <c r="RR81" s="0"/>
+      <c r="RS81" s="0"/>
+      <c r="RT81" s="0"/>
+      <c r="RU81" s="0"/>
+      <c r="RV81" s="0"/>
+      <c r="RW81" s="0"/>
+      <c r="RX81" s="0"/>
+      <c r="RY81" s="0"/>
+      <c r="RZ81" s="0"/>
+      <c r="SA81" s="0"/>
+      <c r="SB81" s="0"/>
+      <c r="SC81" s="0"/>
+      <c r="SD81" s="0"/>
+      <c r="SE81" s="0"/>
+      <c r="SF81" s="0"/>
+      <c r="SG81" s="0"/>
+      <c r="SH81" s="0"/>
+      <c r="SI81" s="0"/>
+      <c r="SJ81" s="0"/>
+      <c r="SK81" s="0"/>
+      <c r="SL81" s="0"/>
+      <c r="SM81" s="0"/>
+      <c r="SN81" s="0"/>
+      <c r="SO81" s="0"/>
+      <c r="SP81" s="0"/>
+      <c r="SQ81" s="0"/>
+      <c r="SR81" s="0"/>
+      <c r="SS81" s="0"/>
+      <c r="ST81" s="0"/>
+      <c r="SU81" s="0"/>
+      <c r="SV81" s="0"/>
+      <c r="SW81" s="0"/>
+      <c r="SX81" s="0"/>
+      <c r="SY81" s="0"/>
+      <c r="SZ81" s="0"/>
+      <c r="TA81" s="0"/>
+      <c r="TB81" s="0"/>
+      <c r="TC81" s="0"/>
+      <c r="TD81" s="0"/>
+      <c r="TE81" s="0"/>
+      <c r="TF81" s="0"/>
+      <c r="TG81" s="0"/>
+      <c r="TH81" s="0"/>
+      <c r="TI81" s="0"/>
+      <c r="TJ81" s="0"/>
+      <c r="TK81" s="0"/>
+      <c r="TL81" s="0"/>
+      <c r="TM81" s="0"/>
+      <c r="TN81" s="0"/>
+      <c r="TO81" s="0"/>
+      <c r="TP81" s="0"/>
+      <c r="TQ81" s="0"/>
+      <c r="TR81" s="0"/>
+      <c r="TS81" s="0"/>
+      <c r="TT81" s="0"/>
+      <c r="TU81" s="0"/>
+      <c r="TV81" s="0"/>
+      <c r="TW81" s="0"/>
+      <c r="TX81" s="0"/>
+      <c r="TY81" s="0"/>
+      <c r="TZ81" s="0"/>
+      <c r="UA81" s="0"/>
+      <c r="UB81" s="0"/>
+      <c r="UC81" s="0"/>
+      <c r="UD81" s="0"/>
+      <c r="UE81" s="0"/>
+      <c r="UF81" s="0"/>
+      <c r="UG81" s="0"/>
+      <c r="UH81" s="0"/>
+      <c r="UI81" s="0"/>
+      <c r="UJ81" s="0"/>
+      <c r="UK81" s="0"/>
+      <c r="UL81" s="0"/>
+      <c r="UM81" s="0"/>
+      <c r="UN81" s="0"/>
+      <c r="UO81" s="0"/>
+      <c r="UP81" s="0"/>
+      <c r="UQ81" s="0"/>
+      <c r="UR81" s="0"/>
+      <c r="US81" s="0"/>
+      <c r="UT81" s="0"/>
+      <c r="UU81" s="0"/>
+      <c r="UV81" s="0"/>
+      <c r="UW81" s="0"/>
+      <c r="UX81" s="0"/>
+      <c r="UY81" s="0"/>
+      <c r="UZ81" s="0"/>
+      <c r="VA81" s="0"/>
+      <c r="VB81" s="0"/>
+      <c r="VC81" s="0"/>
+      <c r="VD81" s="0"/>
+      <c r="VE81" s="0"/>
+      <c r="VF81" s="0"/>
+      <c r="VG81" s="0"/>
+      <c r="VH81" s="0"/>
+      <c r="VI81" s="0"/>
+      <c r="VJ81" s="0"/>
+      <c r="VK81" s="0"/>
+      <c r="VL81" s="0"/>
+      <c r="VM81" s="0"/>
+      <c r="VN81" s="0"/>
+      <c r="VO81" s="0"/>
+      <c r="VP81" s="0"/>
+      <c r="VQ81" s="0"/>
+      <c r="VR81" s="0"/>
+      <c r="VS81" s="0"/>
+      <c r="VT81" s="0"/>
+      <c r="VU81" s="0"/>
+      <c r="VV81" s="0"/>
+      <c r="VW81" s="0"/>
+      <c r="VX81" s="0"/>
+      <c r="VY81" s="0"/>
+      <c r="VZ81" s="0"/>
+      <c r="WA81" s="0"/>
+      <c r="WB81" s="0"/>
+      <c r="WC81" s="0"/>
+      <c r="WD81" s="0"/>
+      <c r="WE81" s="0"/>
+      <c r="WF81" s="0"/>
+      <c r="WG81" s="0"/>
+      <c r="WH81" s="0"/>
+      <c r="WI81" s="0"/>
+      <c r="WJ81" s="0"/>
+      <c r="WK81" s="0"/>
+      <c r="WL81" s="0"/>
+      <c r="WM81" s="0"/>
+      <c r="WN81" s="0"/>
+      <c r="WO81" s="0"/>
+      <c r="WP81" s="0"/>
+      <c r="WQ81" s="0"/>
+      <c r="WR81" s="0"/>
+      <c r="WS81" s="0"/>
+      <c r="WT81" s="0"/>
+      <c r="WU81" s="0"/>
+      <c r="WV81" s="0"/>
+      <c r="WW81" s="0"/>
+      <c r="WX81" s="0"/>
+      <c r="WY81" s="0"/>
+      <c r="WZ81" s="0"/>
+      <c r="XA81" s="0"/>
+      <c r="XB81" s="0"/>
+      <c r="XC81" s="0"/>
+      <c r="XD81" s="0"/>
+      <c r="XE81" s="0"/>
+      <c r="XF81" s="0"/>
+      <c r="XG81" s="0"/>
+      <c r="XH81" s="0"/>
+      <c r="XI81" s="0"/>
+      <c r="XJ81" s="0"/>
+      <c r="XK81" s="0"/>
+      <c r="XL81" s="0"/>
+      <c r="XM81" s="0"/>
+      <c r="XN81" s="0"/>
+      <c r="XO81" s="0"/>
+      <c r="XP81" s="0"/>
+      <c r="XQ81" s="0"/>
+      <c r="XR81" s="0"/>
+      <c r="XS81" s="0"/>
+      <c r="XT81" s="0"/>
+      <c r="XU81" s="0"/>
+      <c r="XV81" s="0"/>
+      <c r="XW81" s="0"/>
+      <c r="XX81" s="0"/>
+      <c r="XY81" s="0"/>
+      <c r="XZ81" s="0"/>
+      <c r="YA81" s="0"/>
+      <c r="YB81" s="0"/>
+      <c r="YC81" s="0"/>
+      <c r="YD81" s="0"/>
+      <c r="YE81" s="0"/>
+      <c r="YF81" s="0"/>
+      <c r="YG81" s="0"/>
+      <c r="YH81" s="0"/>
+      <c r="YI81" s="0"/>
+      <c r="YJ81" s="0"/>
+      <c r="YK81" s="0"/>
+      <c r="YL81" s="0"/>
+      <c r="YM81" s="0"/>
+      <c r="YN81" s="0"/>
+      <c r="YO81" s="0"/>
+      <c r="YP81" s="0"/>
+      <c r="YQ81" s="0"/>
+      <c r="YR81" s="0"/>
+      <c r="YS81" s="0"/>
+      <c r="YT81" s="0"/>
+      <c r="YU81" s="0"/>
+      <c r="YV81" s="0"/>
+      <c r="YW81" s="0"/>
+      <c r="YX81" s="0"/>
+      <c r="YY81" s="0"/>
+      <c r="YZ81" s="0"/>
+      <c r="ZA81" s="0"/>
+      <c r="ZB81" s="0"/>
+      <c r="ZC81" s="0"/>
+      <c r="ZD81" s="0"/>
+      <c r="ZE81" s="0"/>
+      <c r="ZF81" s="0"/>
+      <c r="ZG81" s="0"/>
+      <c r="ZH81" s="0"/>
+      <c r="ZI81" s="0"/>
+      <c r="ZJ81" s="0"/>
+      <c r="ZK81" s="0"/>
+      <c r="ZL81" s="0"/>
+      <c r="ZM81" s="0"/>
+      <c r="ZN81" s="0"/>
+      <c r="ZO81" s="0"/>
+      <c r="ZP81" s="0"/>
+      <c r="ZQ81" s="0"/>
+      <c r="ZR81" s="0"/>
+      <c r="ZS81" s="0"/>
+      <c r="ZT81" s="0"/>
+      <c r="ZU81" s="0"/>
+      <c r="ZV81" s="0"/>
+      <c r="ZW81" s="0"/>
+      <c r="ZX81" s="0"/>
+      <c r="ZY81" s="0"/>
+      <c r="ZZ81" s="0"/>
+      <c r="AAA81" s="0"/>
+      <c r="AAB81" s="0"/>
+      <c r="AAC81" s="0"/>
+      <c r="AAD81" s="0"/>
+      <c r="AAE81" s="0"/>
+      <c r="AAF81" s="0"/>
+      <c r="AAG81" s="0"/>
+      <c r="AAH81" s="0"/>
+      <c r="AAI81" s="0"/>
+      <c r="AAJ81" s="0"/>
+      <c r="AAK81" s="0"/>
+      <c r="AAL81" s="0"/>
+      <c r="AAM81" s="0"/>
+      <c r="AAN81" s="0"/>
+      <c r="AAO81" s="0"/>
+      <c r="AAP81" s="0"/>
+      <c r="AAQ81" s="0"/>
+      <c r="AAR81" s="0"/>
+      <c r="AAS81" s="0"/>
+      <c r="AAT81" s="0"/>
+      <c r="AAU81" s="0"/>
+      <c r="AAV81" s="0"/>
+      <c r="AAW81" s="0"/>
+      <c r="AAX81" s="0"/>
+      <c r="AAY81" s="0"/>
+      <c r="AAZ81" s="0"/>
+      <c r="ABA81" s="0"/>
+      <c r="ABB81" s="0"/>
+      <c r="ABC81" s="0"/>
+      <c r="ABD81" s="0"/>
+      <c r="ABE81" s="0"/>
+      <c r="ABF81" s="0"/>
+      <c r="ABG81" s="0"/>
+      <c r="ABH81" s="0"/>
+      <c r="ABI81" s="0"/>
+      <c r="ABJ81" s="0"/>
+      <c r="ABK81" s="0"/>
+      <c r="ABL81" s="0"/>
+      <c r="ABM81" s="0"/>
+      <c r="ABN81" s="0"/>
+      <c r="ABO81" s="0"/>
+      <c r="ABP81" s="0"/>
+      <c r="ABQ81" s="0"/>
+      <c r="ABR81" s="0"/>
+      <c r="ABS81" s="0"/>
+      <c r="ABT81" s="0"/>
+      <c r="ABU81" s="0"/>
+      <c r="ABV81" s="0"/>
+      <c r="ABW81" s="0"/>
+      <c r="ABX81" s="0"/>
+      <c r="ABY81" s="0"/>
+      <c r="ABZ81" s="0"/>
+      <c r="ACA81" s="0"/>
+      <c r="ACB81" s="0"/>
+      <c r="ACC81" s="0"/>
+      <c r="ACD81" s="0"/>
+      <c r="ACE81" s="0"/>
+      <c r="ACF81" s="0"/>
+      <c r="ACG81" s="0"/>
+      <c r="ACH81" s="0"/>
+      <c r="ACI81" s="0"/>
+      <c r="ACJ81" s="0"/>
+      <c r="ACK81" s="0"/>
+      <c r="ACL81" s="0"/>
+      <c r="ACM81" s="0"/>
+      <c r="ACN81" s="0"/>
+      <c r="ACO81" s="0"/>
+      <c r="ACP81" s="0"/>
+      <c r="ACQ81" s="0"/>
+      <c r="ACR81" s="0"/>
+      <c r="ACS81" s="0"/>
+      <c r="ACT81" s="0"/>
+      <c r="ACU81" s="0"/>
+      <c r="ACV81" s="0"/>
+      <c r="ACW81" s="0"/>
+      <c r="ACX81" s="0"/>
+      <c r="ACY81" s="0"/>
+      <c r="ACZ81" s="0"/>
+      <c r="ADA81" s="0"/>
+      <c r="ADB81" s="0"/>
+      <c r="ADC81" s="0"/>
+      <c r="ADD81" s="0"/>
+      <c r="ADE81" s="0"/>
+      <c r="ADF81" s="0"/>
+      <c r="ADG81" s="0"/>
+      <c r="ADH81" s="0"/>
+      <c r="ADI81" s="0"/>
+      <c r="ADJ81" s="0"/>
+      <c r="ADK81" s="0"/>
+      <c r="ADL81" s="0"/>
+      <c r="ADM81" s="0"/>
+      <c r="ADN81" s="0"/>
+      <c r="ADO81" s="0"/>
+      <c r="ADP81" s="0"/>
+      <c r="ADQ81" s="0"/>
+      <c r="ADR81" s="0"/>
+      <c r="ADS81" s="0"/>
+      <c r="ADT81" s="0"/>
+      <c r="ADU81" s="0"/>
+      <c r="ADV81" s="0"/>
+      <c r="ADW81" s="0"/>
+      <c r="ADX81" s="0"/>
+      <c r="ADY81" s="0"/>
+      <c r="ADZ81" s="0"/>
+      <c r="AEA81" s="0"/>
+      <c r="AEB81" s="0"/>
+      <c r="AEC81" s="0"/>
+      <c r="AED81" s="0"/>
+      <c r="AEE81" s="0"/>
+      <c r="AEF81" s="0"/>
+      <c r="AEG81" s="0"/>
+      <c r="AEH81" s="0"/>
+      <c r="AEI81" s="0"/>
+      <c r="AEJ81" s="0"/>
+      <c r="AEK81" s="0"/>
+      <c r="AEL81" s="0"/>
+      <c r="AEM81" s="0"/>
+      <c r="AEN81" s="0"/>
+      <c r="AEO81" s="0"/>
+      <c r="AEP81" s="0"/>
+      <c r="AEQ81" s="0"/>
+      <c r="AER81" s="0"/>
+      <c r="AES81" s="0"/>
+      <c r="AET81" s="0"/>
+      <c r="AEU81" s="0"/>
+      <c r="AEV81" s="0"/>
+      <c r="AEW81" s="0"/>
+      <c r="AEX81" s="0"/>
+      <c r="AEY81" s="0"/>
+      <c r="AEZ81" s="0"/>
+      <c r="AFA81" s="0"/>
+      <c r="AFB81" s="0"/>
+      <c r="AFC81" s="0"/>
+      <c r="AFD81" s="0"/>
+      <c r="AFE81" s="0"/>
+      <c r="AFF81" s="0"/>
+      <c r="AFG81" s="0"/>
+      <c r="AFH81" s="0"/>
+      <c r="AFI81" s="0"/>
+      <c r="AFJ81" s="0"/>
+      <c r="AFK81" s="0"/>
+      <c r="AFL81" s="0"/>
+      <c r="AFM81" s="0"/>
+      <c r="AFN81" s="0"/>
+      <c r="AFO81" s="0"/>
+      <c r="AFP81" s="0"/>
+      <c r="AFQ81" s="0"/>
+      <c r="AFR81" s="0"/>
+      <c r="AFS81" s="0"/>
+      <c r="AFT81" s="0"/>
+      <c r="AFU81" s="0"/>
+      <c r="AFV81" s="0"/>
+      <c r="AFW81" s="0"/>
+      <c r="AFX81" s="0"/>
+      <c r="AFY81" s="0"/>
+      <c r="AFZ81" s="0"/>
+      <c r="AGA81" s="0"/>
+      <c r="AGB81" s="0"/>
+      <c r="AGC81" s="0"/>
+      <c r="AGD81" s="0"/>
+      <c r="AGE81" s="0"/>
+      <c r="AGF81" s="0"/>
+      <c r="AGG81" s="0"/>
+      <c r="AGH81" s="0"/>
+      <c r="AGI81" s="0"/>
+      <c r="AGJ81" s="0"/>
+      <c r="AGK81" s="0"/>
+      <c r="AGL81" s="0"/>
+      <c r="AGM81" s="0"/>
+      <c r="AGN81" s="0"/>
+      <c r="AGO81" s="0"/>
+      <c r="AGP81" s="0"/>
+      <c r="AGQ81" s="0"/>
+      <c r="AGR81" s="0"/>
+      <c r="AGS81" s="0"/>
+      <c r="AGT81" s="0"/>
+      <c r="AGU81" s="0"/>
+      <c r="AGV81" s="0"/>
+      <c r="AGW81" s="0"/>
+      <c r="AGX81" s="0"/>
+      <c r="AGY81" s="0"/>
+      <c r="AGZ81" s="0"/>
+      <c r="AHA81" s="0"/>
+      <c r="AHB81" s="0"/>
+      <c r="AHC81" s="0"/>
+      <c r="AHD81" s="0"/>
+      <c r="AHE81" s="0"/>
+      <c r="AHF81" s="0"/>
+      <c r="AHG81" s="0"/>
+      <c r="AHH81" s="0"/>
+      <c r="AHI81" s="0"/>
+      <c r="AHJ81" s="0"/>
+      <c r="AHK81" s="0"/>
+      <c r="AHL81" s="0"/>
+      <c r="AHM81" s="0"/>
+      <c r="AHN81" s="0"/>
+      <c r="AHO81" s="0"/>
+      <c r="AHP81" s="0"/>
+      <c r="AHQ81" s="0"/>
+      <c r="AHR81" s="0"/>
+      <c r="AHS81" s="0"/>
+      <c r="AHT81" s="0"/>
+      <c r="AHU81" s="0"/>
+      <c r="AHV81" s="0"/>
+      <c r="AHW81" s="0"/>
+      <c r="AHX81" s="0"/>
+      <c r="AHY81" s="0"/>
+      <c r="AHZ81" s="0"/>
+      <c r="AIA81" s="0"/>
+      <c r="AIB81" s="0"/>
+      <c r="AIC81" s="0"/>
+      <c r="AID81" s="0"/>
+      <c r="AIE81" s="0"/>
+      <c r="AIF81" s="0"/>
+      <c r="AIG81" s="0"/>
+      <c r="AIH81" s="0"/>
+      <c r="AII81" s="0"/>
+      <c r="AIJ81" s="0"/>
+      <c r="AIK81" s="0"/>
+      <c r="AIL81" s="0"/>
+      <c r="AIM81" s="0"/>
+      <c r="AIN81" s="0"/>
+      <c r="AIO81" s="0"/>
+      <c r="AIP81" s="0"/>
+      <c r="AIQ81" s="0"/>
+      <c r="AIR81" s="0"/>
+      <c r="AIS81" s="0"/>
+      <c r="AIT81" s="0"/>
+      <c r="AIU81" s="0"/>
+      <c r="AIV81" s="0"/>
+      <c r="AIW81" s="0"/>
+      <c r="AIX81" s="0"/>
+      <c r="AIY81" s="0"/>
+      <c r="AIZ81" s="0"/>
+      <c r="AJA81" s="0"/>
+      <c r="AJB81" s="0"/>
+      <c r="AJC81" s="0"/>
+      <c r="AJD81" s="0"/>
+      <c r="AJE81" s="0"/>
+      <c r="AJF81" s="0"/>
+      <c r="AJG81" s="0"/>
+      <c r="AJH81" s="0"/>
+      <c r="AJI81" s="0"/>
+      <c r="AJJ81" s="0"/>
+      <c r="AJK81" s="0"/>
+      <c r="AJL81" s="0"/>
+      <c r="AJM81" s="0"/>
+      <c r="AJN81" s="0"/>
+      <c r="AJO81" s="0"/>
+      <c r="AJP81" s="0"/>
+      <c r="AJQ81" s="0"/>
+      <c r="AJR81" s="0"/>
+      <c r="AJS81" s="0"/>
+      <c r="AJT81" s="0"/>
+      <c r="AJU81" s="0"/>
+      <c r="AJV81" s="0"/>
+      <c r="AJW81" s="0"/>
+      <c r="AJX81" s="0"/>
+      <c r="AJY81" s="0"/>
+      <c r="AJZ81" s="0"/>
+      <c r="AKA81" s="0"/>
+      <c r="AKB81" s="0"/>
+      <c r="AKC81" s="0"/>
+      <c r="AKD81" s="0"/>
+      <c r="AKE81" s="0"/>
+      <c r="AKF81" s="0"/>
+      <c r="AKG81" s="0"/>
+      <c r="AKH81" s="0"/>
+      <c r="AKI81" s="0"/>
+      <c r="AKJ81" s="0"/>
+      <c r="AKK81" s="0"/>
+      <c r="AKL81" s="0"/>
+      <c r="AKM81" s="0"/>
+      <c r="AKN81" s="0"/>
+      <c r="AKO81" s="0"/>
+      <c r="AKP81" s="0"/>
+      <c r="AKQ81" s="0"/>
+      <c r="AKR81" s="0"/>
+      <c r="AKS81" s="0"/>
+      <c r="AKT81" s="0"/>
+      <c r="AKU81" s="0"/>
+      <c r="AKV81" s="0"/>
+      <c r="AKW81" s="0"/>
+      <c r="AKX81" s="0"/>
+      <c r="AKY81" s="0"/>
+      <c r="AKZ81" s="0"/>
+      <c r="ALA81" s="0"/>
+      <c r="ALB81" s="0"/>
+      <c r="ALC81" s="0"/>
+      <c r="ALD81" s="0"/>
+      <c r="ALE81" s="0"/>
+      <c r="ALF81" s="0"/>
+      <c r="ALG81" s="0"/>
+      <c r="ALH81" s="0"/>
+      <c r="ALI81" s="0"/>
+      <c r="ALJ81" s="0"/>
+      <c r="ALK81" s="0"/>
+      <c r="ALL81" s="0"/>
+      <c r="ALM81" s="0"/>
+      <c r="ALN81" s="0"/>
+      <c r="ALO81" s="0"/>
+      <c r="ALP81" s="0"/>
+      <c r="ALQ81" s="0"/>
+      <c r="ALR81" s="0"/>
+      <c r="ALS81" s="0"/>
+      <c r="ALT81" s="0"/>
+      <c r="ALU81" s="0"/>
+      <c r="ALV81" s="0"/>
+      <c r="ALW81" s="0"/>
+      <c r="ALX81" s="0"/>
+      <c r="ALY81" s="0"/>
+      <c r="ALZ81" s="0"/>
+      <c r="AMA81" s="0"/>
+      <c r="AMB81" s="0"/>
+      <c r="AMC81" s="0"/>
+      <c r="AMD81" s="0"/>
+      <c r="AME81" s="0"/>
+      <c r="AMF81" s="0"/>
+      <c r="AMG81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
+      <c r="B82" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+      <c r="R82" s="0"/>
+      <c r="S82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" s="0"/>
+      <c r="U82" s="0"/>
+      <c r="V82" s="0"/>
+      <c r="W82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X82" s="0"/>
+      <c r="Y82" s="0"/>
+      <c r="Z82" s="0"/>
+      <c r="AA82" s="0"/>
+      <c r="AB82" s="0"/>
+      <c r="AC82" s="0"/>
+      <c r="AD82" s="0"/>
+      <c r="AE82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF82" s="0"/>
+      <c r="AG82" s="0"/>
+      <c r="AH82" s="0"/>
+      <c r="AI82" s="0"/>
+      <c r="AJ82" s="0"/>
+      <c r="AK82" s="0"/>
+      <c r="AL82" s="0"/>
+      <c r="AM82" s="0"/>
+      <c r="AN82" s="0"/>
+      <c r="AO82" s="0"/>
+      <c r="AP82" s="0"/>
+      <c r="AQ82" s="0"/>
+      <c r="AR82" s="0"/>
+      <c r="AS82" s="0"/>
+      <c r="AT82" s="0"/>
+      <c r="AU82" s="0"/>
+      <c r="AV82" s="0"/>
+      <c r="AW82" s="0"/>
+      <c r="AX82" s="0"/>
+      <c r="AY82" s="0"/>
+      <c r="AZ82" s="0"/>
+      <c r="BA82" s="0"/>
+      <c r="BB82" s="0"/>
+      <c r="BC82" s="0"/>
+      <c r="BD82" s="0"/>
+      <c r="BE82" s="0"/>
+      <c r="BF82" s="0"/>
+      <c r="BG82" s="0"/>
+      <c r="BH82" s="0"/>
+      <c r="BI82" s="0"/>
+      <c r="BJ82" s="0"/>
+      <c r="BK82" s="0"/>
+      <c r="BL82" s="0"/>
+      <c r="BM82" s="0"/>
+      <c r="BN82" s="0"/>
+      <c r="BO82" s="0"/>
+      <c r="BP82" s="0"/>
+      <c r="BQ82" s="0"/>
+      <c r="BR82" s="0"/>
+      <c r="BS82" s="0"/>
+      <c r="BT82" s="0"/>
+      <c r="BU82" s="0"/>
+      <c r="BV82" s="0"/>
+      <c r="BW82" s="0"/>
+      <c r="BX82" s="0"/>
+      <c r="BY82" s="0"/>
+      <c r="BZ82" s="0"/>
+      <c r="CA82" s="0"/>
+      <c r="CB82" s="0"/>
+      <c r="CC82" s="0"/>
+      <c r="CD82" s="0"/>
+      <c r="CE82" s="0"/>
+      <c r="CF82" s="0"/>
+      <c r="CG82" s="0"/>
+      <c r="CH82" s="0"/>
+      <c r="CI82" s="0"/>
+      <c r="CJ82" s="0"/>
+      <c r="CK82" s="0"/>
+      <c r="CL82" s="0"/>
+      <c r="CM82" s="0"/>
+      <c r="CN82" s="0"/>
+      <c r="CO82" s="0"/>
+      <c r="CP82" s="0"/>
+      <c r="CQ82" s="0"/>
+      <c r="CR82" s="0"/>
+      <c r="CS82" s="0"/>
+      <c r="CT82" s="0"/>
+      <c r="CU82" s="0"/>
+      <c r="CV82" s="0"/>
+      <c r="CW82" s="0"/>
+      <c r="CX82" s="0"/>
+      <c r="CY82" s="0"/>
+      <c r="CZ82" s="0"/>
+      <c r="DA82" s="0"/>
+      <c r="DB82" s="0"/>
+      <c r="DC82" s="0"/>
+      <c r="DD82" s="0"/>
+      <c r="DE82" s="0"/>
+      <c r="DF82" s="0"/>
+      <c r="DG82" s="0"/>
+      <c r="DH82" s="0"/>
+      <c r="DI82" s="0"/>
+      <c r="DJ82" s="0"/>
+      <c r="DK82" s="0"/>
+      <c r="DL82" s="0"/>
+      <c r="DM82" s="0"/>
+      <c r="DN82" s="0"/>
+      <c r="DO82" s="0"/>
+      <c r="DP82" s="0"/>
+      <c r="DQ82" s="0"/>
+      <c r="DR82" s="0"/>
+      <c r="DS82" s="0"/>
+      <c r="DT82" s="0"/>
+      <c r="DU82" s="0"/>
+      <c r="DV82" s="0"/>
+      <c r="DW82" s="0"/>
+      <c r="DX82" s="0"/>
+      <c r="DY82" s="0"/>
+      <c r="DZ82" s="0"/>
+      <c r="EA82" s="0"/>
+      <c r="EB82" s="0"/>
+      <c r="EC82" s="0"/>
+      <c r="ED82" s="0"/>
+      <c r="EE82" s="0"/>
+      <c r="EF82" s="0"/>
+      <c r="EG82" s="0"/>
+      <c r="EH82" s="0"/>
+      <c r="EI82" s="0"/>
+      <c r="EJ82" s="0"/>
+      <c r="EK82" s="0"/>
+      <c r="EL82" s="0"/>
+      <c r="EM82" s="0"/>
+      <c r="EN82" s="0"/>
+      <c r="EO82" s="0"/>
+      <c r="EP82" s="0"/>
+      <c r="EQ82" s="0"/>
+      <c r="ER82" s="0"/>
+      <c r="ES82" s="0"/>
+      <c r="ET82" s="0"/>
+      <c r="EU82" s="0"/>
+      <c r="EV82" s="0"/>
+      <c r="EW82" s="0"/>
+      <c r="EX82" s="0"/>
+      <c r="EY82" s="0"/>
+      <c r="EZ82" s="0"/>
+      <c r="FA82" s="0"/>
+      <c r="FB82" s="0"/>
+      <c r="FC82" s="0"/>
+      <c r="FD82" s="0"/>
+      <c r="FE82" s="0"/>
+      <c r="FF82" s="0"/>
+      <c r="FG82" s="0"/>
+      <c r="FH82" s="0"/>
+      <c r="FI82" s="0"/>
+      <c r="FJ82" s="0"/>
+      <c r="FK82" s="0"/>
+      <c r="FL82" s="0"/>
+      <c r="FM82" s="0"/>
+      <c r="FN82" s="0"/>
+      <c r="FO82" s="0"/>
+      <c r="FP82" s="0"/>
+      <c r="FQ82" s="0"/>
+      <c r="FR82" s="0"/>
+      <c r="FS82" s="0"/>
+      <c r="FT82" s="0"/>
+      <c r="FU82" s="0"/>
+      <c r="FV82" s="0"/>
+      <c r="FW82" s="0"/>
+      <c r="FX82" s="0"/>
+      <c r="FY82" s="0"/>
+      <c r="FZ82" s="0"/>
+      <c r="GA82" s="0"/>
+      <c r="GB82" s="0"/>
+      <c r="GC82" s="0"/>
+      <c r="GD82" s="0"/>
+      <c r="GE82" s="0"/>
+      <c r="GF82" s="0"/>
+      <c r="GG82" s="0"/>
+      <c r="GH82" s="0"/>
+      <c r="GI82" s="0"/>
+      <c r="GJ82" s="0"/>
+      <c r="GK82" s="0"/>
+      <c r="GL82" s="0"/>
+      <c r="GM82" s="0"/>
+      <c r="GN82" s="0"/>
+      <c r="GO82" s="0"/>
+      <c r="GP82" s="0"/>
+      <c r="GQ82" s="0"/>
+      <c r="GR82" s="0"/>
+      <c r="GS82" s="0"/>
+      <c r="GT82" s="0"/>
+      <c r="GU82" s="0"/>
+      <c r="GV82" s="0"/>
+      <c r="GW82" s="0"/>
+      <c r="GX82" s="0"/>
+      <c r="GY82" s="0"/>
+      <c r="GZ82" s="0"/>
+      <c r="HA82" s="0"/>
+      <c r="HB82" s="0"/>
+      <c r="HC82" s="0"/>
+      <c r="HD82" s="0"/>
+      <c r="HE82" s="0"/>
+      <c r="HF82" s="0"/>
+      <c r="HG82" s="0"/>
+      <c r="HH82" s="0"/>
+      <c r="HI82" s="0"/>
+      <c r="HJ82" s="0"/>
+      <c r="HK82" s="0"/>
+      <c r="HL82" s="0"/>
+      <c r="HM82" s="0"/>
+      <c r="HN82" s="0"/>
+      <c r="HO82" s="0"/>
+      <c r="HP82" s="0"/>
+      <c r="HQ82" s="0"/>
+      <c r="HR82" s="0"/>
+      <c r="HS82" s="0"/>
+      <c r="HT82" s="0"/>
+      <c r="HU82" s="0"/>
+      <c r="HV82" s="0"/>
+      <c r="HW82" s="0"/>
+      <c r="HX82" s="0"/>
+      <c r="HY82" s="0"/>
+      <c r="HZ82" s="0"/>
+      <c r="IA82" s="0"/>
+      <c r="IB82" s="0"/>
+      <c r="IC82" s="0"/>
+      <c r="ID82" s="0"/>
+      <c r="IE82" s="0"/>
+      <c r="IF82" s="0"/>
+      <c r="IG82" s="0"/>
+      <c r="IH82" s="0"/>
+      <c r="II82" s="0"/>
+      <c r="IJ82" s="0"/>
+      <c r="IK82" s="0"/>
+      <c r="IL82" s="0"/>
+      <c r="IM82" s="0"/>
+      <c r="IN82" s="0"/>
+      <c r="IO82" s="0"/>
+      <c r="IP82" s="0"/>
+      <c r="IQ82" s="0"/>
+      <c r="IR82" s="0"/>
+      <c r="IS82" s="0"/>
+      <c r="IT82" s="0"/>
+      <c r="IU82" s="0"/>
+      <c r="IV82" s="0"/>
+      <c r="IW82" s="0"/>
+      <c r="IX82" s="0"/>
+      <c r="IY82" s="0"/>
+      <c r="IZ82" s="0"/>
+      <c r="JA82" s="0"/>
+      <c r="JB82" s="0"/>
+      <c r="JC82" s="0"/>
+      <c r="JD82" s="0"/>
+      <c r="JE82" s="0"/>
+      <c r="JF82" s="0"/>
+      <c r="JG82" s="0"/>
+      <c r="JH82" s="0"/>
+      <c r="JI82" s="0"/>
+      <c r="JJ82" s="0"/>
+      <c r="JK82" s="0"/>
+      <c r="JL82" s="0"/>
+      <c r="JM82" s="0"/>
+      <c r="JN82" s="0"/>
+      <c r="JO82" s="0"/>
+      <c r="JP82" s="0"/>
+      <c r="JQ82" s="0"/>
+      <c r="JR82" s="0"/>
+      <c r="JS82" s="0"/>
+      <c r="JT82" s="0"/>
+      <c r="JU82" s="0"/>
+      <c r="JV82" s="0"/>
+      <c r="JW82" s="0"/>
+      <c r="JX82" s="0"/>
+      <c r="JY82" s="0"/>
+      <c r="JZ82" s="0"/>
+      <c r="KA82" s="0"/>
+      <c r="KB82" s="0"/>
+      <c r="KC82" s="0"/>
+      <c r="KD82" s="0"/>
+      <c r="KE82" s="0"/>
+      <c r="KF82" s="0"/>
+      <c r="KG82" s="0"/>
+      <c r="KH82" s="0"/>
+      <c r="KI82" s="0"/>
+      <c r="KJ82" s="0"/>
+      <c r="KK82" s="0"/>
+      <c r="KL82" s="0"/>
+      <c r="KM82" s="0"/>
+      <c r="KN82" s="0"/>
+      <c r="KO82" s="0"/>
+      <c r="KP82" s="0"/>
+      <c r="KQ82" s="0"/>
+      <c r="KR82" s="0"/>
+      <c r="KS82" s="0"/>
+      <c r="KT82" s="0"/>
+      <c r="KU82" s="0"/>
+      <c r="KV82" s="0"/>
+      <c r="KW82" s="0"/>
+      <c r="KX82" s="0"/>
+      <c r="KY82" s="0"/>
+      <c r="KZ82" s="0"/>
+      <c r="LA82" s="0"/>
+      <c r="LB82" s="0"/>
+      <c r="LC82" s="0"/>
+      <c r="LD82" s="0"/>
+      <c r="LE82" s="0"/>
+      <c r="LF82" s="0"/>
+      <c r="LG82" s="0"/>
+      <c r="LH82" s="0"/>
+      <c r="LI82" s="0"/>
+      <c r="LJ82" s="0"/>
+      <c r="LK82" s="0"/>
+      <c r="LL82" s="0"/>
+      <c r="LM82" s="0"/>
+      <c r="LN82" s="0"/>
+      <c r="LO82" s="0"/>
+      <c r="LP82" s="0"/>
+      <c r="LQ82" s="0"/>
+      <c r="LR82" s="0"/>
+      <c r="LS82" s="0"/>
+      <c r="LT82" s="0"/>
+      <c r="LU82" s="0"/>
+      <c r="LV82" s="0"/>
+      <c r="LW82" s="0"/>
+      <c r="LX82" s="0"/>
+      <c r="LY82" s="0"/>
+      <c r="LZ82" s="0"/>
+      <c r="MA82" s="0"/>
+      <c r="MB82" s="0"/>
+      <c r="MC82" s="0"/>
+      <c r="MD82" s="0"/>
+      <c r="ME82" s="0"/>
+      <c r="MF82" s="0"/>
+      <c r="MG82" s="0"/>
+      <c r="MH82" s="0"/>
+      <c r="MI82" s="0"/>
+      <c r="MJ82" s="0"/>
+      <c r="MK82" s="0"/>
+      <c r="ML82" s="0"/>
+      <c r="MM82" s="0"/>
+      <c r="MN82" s="0"/>
+      <c r="MO82" s="0"/>
+      <c r="MP82" s="0"/>
+      <c r="MQ82" s="0"/>
+      <c r="MR82" s="0"/>
+      <c r="MS82" s="0"/>
+      <c r="MT82" s="0"/>
+      <c r="MU82" s="0"/>
+      <c r="MV82" s="0"/>
+      <c r="MW82" s="0"/>
+      <c r="MX82" s="0"/>
+      <c r="MY82" s="0"/>
+      <c r="MZ82" s="0"/>
+      <c r="NA82" s="0"/>
+      <c r="NB82" s="0"/>
+      <c r="NC82" s="0"/>
+      <c r="ND82" s="0"/>
+      <c r="NE82" s="0"/>
+      <c r="NF82" s="0"/>
+      <c r="NG82" s="0"/>
+      <c r="NH82" s="0"/>
+      <c r="NI82" s="0"/>
+      <c r="NJ82" s="0"/>
+      <c r="NK82" s="0"/>
+      <c r="NL82" s="0"/>
+      <c r="NM82" s="0"/>
+      <c r="NN82" s="0"/>
+      <c r="NO82" s="0"/>
+      <c r="NP82" s="0"/>
+      <c r="NQ82" s="0"/>
+      <c r="NR82" s="0"/>
+      <c r="NS82" s="0"/>
+      <c r="NT82" s="0"/>
+      <c r="NU82" s="0"/>
+      <c r="NV82" s="0"/>
+      <c r="NW82" s="0"/>
+      <c r="NX82" s="0"/>
+      <c r="NY82" s="0"/>
+      <c r="NZ82" s="0"/>
+      <c r="OA82" s="0"/>
+      <c r="OB82" s="0"/>
+      <c r="OC82" s="0"/>
+      <c r="OD82" s="0"/>
+      <c r="OE82" s="0"/>
+      <c r="OF82" s="0"/>
+      <c r="OG82" s="0"/>
+      <c r="OH82" s="0"/>
+      <c r="OI82" s="0"/>
+      <c r="OJ82" s="0"/>
+      <c r="OK82" s="0"/>
+      <c r="OL82" s="0"/>
+      <c r="OM82" s="0"/>
+      <c r="ON82" s="0"/>
+      <c r="OO82" s="0"/>
+      <c r="OP82" s="0"/>
+      <c r="OQ82" s="0"/>
+      <c r="OR82" s="0"/>
+      <c r="OS82" s="0"/>
+      <c r="OT82" s="0"/>
+      <c r="OU82" s="0"/>
+      <c r="OV82" s="0"/>
+      <c r="OW82" s="0"/>
+      <c r="OX82" s="0"/>
+      <c r="OY82" s="0"/>
+      <c r="OZ82" s="0"/>
+      <c r="PA82" s="0"/>
+      <c r="PB82" s="0"/>
+      <c r="PC82" s="0"/>
+      <c r="PD82" s="0"/>
+      <c r="PE82" s="0"/>
+      <c r="PF82" s="0"/>
+      <c r="PG82" s="0"/>
+      <c r="PH82" s="0"/>
+      <c r="PI82" s="0"/>
+      <c r="PJ82" s="0"/>
+      <c r="PK82" s="0"/>
+      <c r="PL82" s="0"/>
+      <c r="PM82" s="0"/>
+      <c r="PN82" s="0"/>
+      <c r="PO82" s="0"/>
+      <c r="PP82" s="0"/>
+      <c r="PQ82" s="0"/>
+      <c r="PR82" s="0"/>
+      <c r="PS82" s="0"/>
+      <c r="PT82" s="0"/>
+      <c r="PU82" s="0"/>
+      <c r="PV82" s="0"/>
+      <c r="PW82" s="0"/>
+      <c r="PX82" s="0"/>
+      <c r="PY82" s="0"/>
+      <c r="PZ82" s="0"/>
+      <c r="QA82" s="0"/>
+      <c r="QB82" s="0"/>
+      <c r="QC82" s="0"/>
+      <c r="QD82" s="0"/>
+      <c r="QE82" s="0"/>
+      <c r="QF82" s="0"/>
+      <c r="QG82" s="0"/>
+      <c r="QH82" s="0"/>
+      <c r="QI82" s="0"/>
+      <c r="QJ82" s="0"/>
+      <c r="QK82" s="0"/>
+      <c r="QL82" s="0"/>
+      <c r="QM82" s="0"/>
+      <c r="QN82" s="0"/>
+      <c r="QO82" s="0"/>
+      <c r="QP82" s="0"/>
+      <c r="QQ82" s="0"/>
+      <c r="QR82" s="0"/>
+      <c r="QS82" s="0"/>
+      <c r="QT82" s="0"/>
+      <c r="QU82" s="0"/>
+      <c r="QV82" s="0"/>
+      <c r="QW82" s="0"/>
+      <c r="QX82" s="0"/>
+      <c r="QY82" s="0"/>
+      <c r="QZ82" s="0"/>
+      <c r="RA82" s="0"/>
+      <c r="RB82" s="0"/>
+      <c r="RC82" s="0"/>
+      <c r="RD82" s="0"/>
+      <c r="RE82" s="0"/>
+      <c r="RF82" s="0"/>
+      <c r="RG82" s="0"/>
+      <c r="RH82" s="0"/>
+      <c r="RI82" s="0"/>
+      <c r="RJ82" s="0"/>
+      <c r="RK82" s="0"/>
+      <c r="RL82" s="0"/>
+      <c r="RM82" s="0"/>
+      <c r="RN82" s="0"/>
+      <c r="RO82" s="0"/>
+      <c r="RP82" s="0"/>
+      <c r="RQ82" s="0"/>
+      <c r="RR82" s="0"/>
+      <c r="RS82" s="0"/>
+      <c r="RT82" s="0"/>
+      <c r="RU82" s="0"/>
+      <c r="RV82" s="0"/>
+      <c r="RW82" s="0"/>
+      <c r="RX82" s="0"/>
+      <c r="RY82" s="0"/>
+      <c r="RZ82" s="0"/>
+      <c r="SA82" s="0"/>
+      <c r="SB82" s="0"/>
+      <c r="SC82" s="0"/>
+      <c r="SD82" s="0"/>
+      <c r="SE82" s="0"/>
+      <c r="SF82" s="0"/>
+      <c r="SG82" s="0"/>
+      <c r="SH82" s="0"/>
+      <c r="SI82" s="0"/>
+      <c r="SJ82" s="0"/>
+      <c r="SK82" s="0"/>
+      <c r="SL82" s="0"/>
+      <c r="SM82" s="0"/>
+      <c r="SN82" s="0"/>
+      <c r="SO82" s="0"/>
+      <c r="SP82" s="0"/>
+      <c r="SQ82" s="0"/>
+      <c r="SR82" s="0"/>
+      <c r="SS82" s="0"/>
+      <c r="ST82" s="0"/>
+      <c r="SU82" s="0"/>
+      <c r="SV82" s="0"/>
+      <c r="SW82" s="0"/>
+      <c r="SX82" s="0"/>
+      <c r="SY82" s="0"/>
+      <c r="SZ82" s="0"/>
+      <c r="TA82" s="0"/>
+      <c r="TB82" s="0"/>
+      <c r="TC82" s="0"/>
+      <c r="TD82" s="0"/>
+      <c r="TE82" s="0"/>
+      <c r="TF82" s="0"/>
+      <c r="TG82" s="0"/>
+      <c r="TH82" s="0"/>
+      <c r="TI82" s="0"/>
+      <c r="TJ82" s="0"/>
+      <c r="TK82" s="0"/>
+      <c r="TL82" s="0"/>
+      <c r="TM82" s="0"/>
+      <c r="TN82" s="0"/>
+      <c r="TO82" s="0"/>
+      <c r="TP82" s="0"/>
+      <c r="TQ82" s="0"/>
+      <c r="TR82" s="0"/>
+      <c r="TS82" s="0"/>
+      <c r="TT82" s="0"/>
+      <c r="TU82" s="0"/>
+      <c r="TV82" s="0"/>
+      <c r="TW82" s="0"/>
+      <c r="TX82" s="0"/>
+      <c r="TY82" s="0"/>
+      <c r="TZ82" s="0"/>
+      <c r="UA82" s="0"/>
+      <c r="UB82" s="0"/>
+      <c r="UC82" s="0"/>
+      <c r="UD82" s="0"/>
+      <c r="UE82" s="0"/>
+      <c r="UF82" s="0"/>
+      <c r="UG82" s="0"/>
+      <c r="UH82" s="0"/>
+      <c r="UI82" s="0"/>
+      <c r="UJ82" s="0"/>
+      <c r="UK82" s="0"/>
+      <c r="UL82" s="0"/>
+      <c r="UM82" s="0"/>
+      <c r="UN82" s="0"/>
+      <c r="UO82" s="0"/>
+      <c r="UP82" s="0"/>
+      <c r="UQ82" s="0"/>
+      <c r="UR82" s="0"/>
+      <c r="US82" s="0"/>
+      <c r="UT82" s="0"/>
+      <c r="UU82" s="0"/>
+      <c r="UV82" s="0"/>
+      <c r="UW82" s="0"/>
+      <c r="UX82" s="0"/>
+      <c r="UY82" s="0"/>
+      <c r="UZ82" s="0"/>
+      <c r="VA82" s="0"/>
+      <c r="VB82" s="0"/>
+      <c r="VC82" s="0"/>
+      <c r="VD82" s="0"/>
+      <c r="VE82" s="0"/>
+      <c r="VF82" s="0"/>
+      <c r="VG82" s="0"/>
+      <c r="VH82" s="0"/>
+      <c r="VI82" s="0"/>
+      <c r="VJ82" s="0"/>
+      <c r="VK82" s="0"/>
+      <c r="VL82" s="0"/>
+      <c r="VM82" s="0"/>
+      <c r="VN82" s="0"/>
+      <c r="VO82" s="0"/>
+      <c r="VP82" s="0"/>
+      <c r="VQ82" s="0"/>
+      <c r="VR82" s="0"/>
+      <c r="VS82" s="0"/>
+      <c r="VT82" s="0"/>
+      <c r="VU82" s="0"/>
+      <c r="VV82" s="0"/>
+      <c r="VW82" s="0"/>
+      <c r="VX82" s="0"/>
+      <c r="VY82" s="0"/>
+      <c r="VZ82" s="0"/>
+      <c r="WA82" s="0"/>
+      <c r="WB82" s="0"/>
+      <c r="WC82" s="0"/>
+      <c r="WD82" s="0"/>
+      <c r="WE82" s="0"/>
+      <c r="WF82" s="0"/>
+      <c r="WG82" s="0"/>
+      <c r="WH82" s="0"/>
+      <c r="WI82" s="0"/>
+      <c r="WJ82" s="0"/>
+      <c r="WK82" s="0"/>
+      <c r="WL82" s="0"/>
+      <c r="WM82" s="0"/>
+      <c r="WN82" s="0"/>
+      <c r="WO82" s="0"/>
+      <c r="WP82" s="0"/>
+      <c r="WQ82" s="0"/>
+      <c r="WR82" s="0"/>
+      <c r="WS82" s="0"/>
+      <c r="WT82" s="0"/>
+      <c r="WU82" s="0"/>
+      <c r="WV82" s="0"/>
+      <c r="WW82" s="0"/>
+      <c r="WX82" s="0"/>
+      <c r="WY82" s="0"/>
+      <c r="WZ82" s="0"/>
+      <c r="XA82" s="0"/>
+      <c r="XB82" s="0"/>
+      <c r="XC82" s="0"/>
+      <c r="XD82" s="0"/>
+      <c r="XE82" s="0"/>
+      <c r="XF82" s="0"/>
+      <c r="XG82" s="0"/>
+      <c r="XH82" s="0"/>
+      <c r="XI82" s="0"/>
+      <c r="XJ82" s="0"/>
+      <c r="XK82" s="0"/>
+      <c r="XL82" s="0"/>
+      <c r="XM82" s="0"/>
+      <c r="XN82" s="0"/>
+      <c r="XO82" s="0"/>
+      <c r="XP82" s="0"/>
+      <c r="XQ82" s="0"/>
+      <c r="XR82" s="0"/>
+      <c r="XS82" s="0"/>
+      <c r="XT82" s="0"/>
+      <c r="XU82" s="0"/>
+      <c r="XV82" s="0"/>
+      <c r="XW82" s="0"/>
+      <c r="XX82" s="0"/>
+      <c r="XY82" s="0"/>
+      <c r="XZ82" s="0"/>
+      <c r="YA82" s="0"/>
+      <c r="YB82" s="0"/>
+      <c r="YC82" s="0"/>
+      <c r="YD82" s="0"/>
+      <c r="YE82" s="0"/>
+      <c r="YF82" s="0"/>
+      <c r="YG82" s="0"/>
+      <c r="YH82" s="0"/>
+      <c r="YI82" s="0"/>
+      <c r="YJ82" s="0"/>
+      <c r="YK82" s="0"/>
+      <c r="YL82" s="0"/>
+      <c r="YM82" s="0"/>
+      <c r="YN82" s="0"/>
+      <c r="YO82" s="0"/>
+      <c r="YP82" s="0"/>
+      <c r="YQ82" s="0"/>
+      <c r="YR82" s="0"/>
+      <c r="YS82" s="0"/>
+      <c r="YT82" s="0"/>
+      <c r="YU82" s="0"/>
+      <c r="YV82" s="0"/>
+      <c r="YW82" s="0"/>
+      <c r="YX82" s="0"/>
+      <c r="YY82" s="0"/>
+      <c r="YZ82" s="0"/>
+      <c r="ZA82" s="0"/>
+      <c r="ZB82" s="0"/>
+      <c r="ZC82" s="0"/>
+      <c r="ZD82" s="0"/>
+      <c r="ZE82" s="0"/>
+      <c r="ZF82" s="0"/>
+      <c r="ZG82" s="0"/>
+      <c r="ZH82" s="0"/>
+      <c r="ZI82" s="0"/>
+      <c r="ZJ82" s="0"/>
+      <c r="ZK82" s="0"/>
+      <c r="ZL82" s="0"/>
+      <c r="ZM82" s="0"/>
+      <c r="ZN82" s="0"/>
+      <c r="ZO82" s="0"/>
+      <c r="ZP82" s="0"/>
+      <c r="ZQ82" s="0"/>
+      <c r="ZR82" s="0"/>
+      <c r="ZS82" s="0"/>
+      <c r="ZT82" s="0"/>
+      <c r="ZU82" s="0"/>
+      <c r="ZV82" s="0"/>
+      <c r="ZW82" s="0"/>
+      <c r="ZX82" s="0"/>
+      <c r="ZY82" s="0"/>
+      <c r="ZZ82" s="0"/>
+      <c r="AAA82" s="0"/>
+      <c r="AAB82" s="0"/>
+      <c r="AAC82" s="0"/>
+      <c r="AAD82" s="0"/>
+      <c r="AAE82" s="0"/>
+      <c r="AAF82" s="0"/>
+      <c r="AAG82" s="0"/>
+      <c r="AAH82" s="0"/>
+      <c r="AAI82" s="0"/>
+      <c r="AAJ82" s="0"/>
+      <c r="AAK82" s="0"/>
+      <c r="AAL82" s="0"/>
+      <c r="AAM82" s="0"/>
+      <c r="AAN82" s="0"/>
+      <c r="AAO82" s="0"/>
+      <c r="AAP82" s="0"/>
+      <c r="AAQ82" s="0"/>
+      <c r="AAR82" s="0"/>
+      <c r="AAS82" s="0"/>
+      <c r="AAT82" s="0"/>
+      <c r="AAU82" s="0"/>
+      <c r="AAV82" s="0"/>
+      <c r="AAW82" s="0"/>
+      <c r="AAX82" s="0"/>
+      <c r="AAY82" s="0"/>
+      <c r="AAZ82" s="0"/>
+      <c r="ABA82" s="0"/>
+      <c r="ABB82" s="0"/>
+      <c r="ABC82" s="0"/>
+      <c r="ABD82" s="0"/>
+      <c r="ABE82" s="0"/>
+      <c r="ABF82" s="0"/>
+      <c r="ABG82" s="0"/>
+      <c r="ABH82" s="0"/>
+      <c r="ABI82" s="0"/>
+      <c r="ABJ82" s="0"/>
+      <c r="ABK82" s="0"/>
+      <c r="ABL82" s="0"/>
+      <c r="ABM82" s="0"/>
+      <c r="ABN82" s="0"/>
+      <c r="ABO82" s="0"/>
+      <c r="ABP82" s="0"/>
+      <c r="ABQ82" s="0"/>
+      <c r="ABR82" s="0"/>
+      <c r="ABS82" s="0"/>
+      <c r="ABT82" s="0"/>
+      <c r="ABU82" s="0"/>
+      <c r="ABV82" s="0"/>
+      <c r="ABW82" s="0"/>
+      <c r="ABX82" s="0"/>
+      <c r="ABY82" s="0"/>
+      <c r="ABZ82" s="0"/>
+      <c r="ACA82" s="0"/>
+      <c r="ACB82" s="0"/>
+      <c r="ACC82" s="0"/>
+      <c r="ACD82" s="0"/>
+      <c r="ACE82" s="0"/>
+      <c r="ACF82" s="0"/>
+      <c r="ACG82" s="0"/>
+      <c r="ACH82" s="0"/>
+      <c r="ACI82" s="0"/>
+      <c r="ACJ82" s="0"/>
+      <c r="ACK82" s="0"/>
+      <c r="ACL82" s="0"/>
+      <c r="ACM82" s="0"/>
+      <c r="ACN82" s="0"/>
+      <c r="ACO82" s="0"/>
+      <c r="ACP82" s="0"/>
+      <c r="ACQ82" s="0"/>
+      <c r="ACR82" s="0"/>
+      <c r="ACS82" s="0"/>
+      <c r="ACT82" s="0"/>
+      <c r="ACU82" s="0"/>
+      <c r="ACV82" s="0"/>
+      <c r="ACW82" s="0"/>
+      <c r="ACX82" s="0"/>
+      <c r="ACY82" s="0"/>
+      <c r="ACZ82" s="0"/>
+      <c r="ADA82" s="0"/>
+      <c r="ADB82" s="0"/>
+      <c r="ADC82" s="0"/>
+      <c r="ADD82" s="0"/>
+      <c r="ADE82" s="0"/>
+      <c r="ADF82" s="0"/>
+      <c r="ADG82" s="0"/>
+      <c r="ADH82" s="0"/>
+      <c r="ADI82" s="0"/>
+      <c r="ADJ82" s="0"/>
+      <c r="ADK82" s="0"/>
+      <c r="ADL82" s="0"/>
+      <c r="ADM82" s="0"/>
+      <c r="ADN82" s="0"/>
+      <c r="ADO82" s="0"/>
+      <c r="ADP82" s="0"/>
+      <c r="ADQ82" s="0"/>
+      <c r="ADR82" s="0"/>
+      <c r="ADS82" s="0"/>
+      <c r="ADT82" s="0"/>
+      <c r="ADU82" s="0"/>
+      <c r="ADV82" s="0"/>
+      <c r="ADW82" s="0"/>
+      <c r="ADX82" s="0"/>
+      <c r="ADY82" s="0"/>
+      <c r="ADZ82" s="0"/>
+      <c r="AEA82" s="0"/>
+      <c r="AEB82" s="0"/>
+      <c r="AEC82" s="0"/>
+      <c r="AED82" s="0"/>
+      <c r="AEE82" s="0"/>
+      <c r="AEF82" s="0"/>
+      <c r="AEG82" s="0"/>
+      <c r="AEH82" s="0"/>
+      <c r="AEI82" s="0"/>
+      <c r="AEJ82" s="0"/>
+      <c r="AEK82" s="0"/>
+      <c r="AEL82" s="0"/>
+      <c r="AEM82" s="0"/>
+      <c r="AEN82" s="0"/>
+      <c r="AEO82" s="0"/>
+      <c r="AEP82" s="0"/>
+      <c r="AEQ82" s="0"/>
+      <c r="AER82" s="0"/>
+      <c r="AES82" s="0"/>
+      <c r="AET82" s="0"/>
+      <c r="AEU82" s="0"/>
+      <c r="AEV82" s="0"/>
+      <c r="AEW82" s="0"/>
+      <c r="AEX82" s="0"/>
+      <c r="AEY82" s="0"/>
+      <c r="AEZ82" s="0"/>
+      <c r="AFA82" s="0"/>
+      <c r="AFB82" s="0"/>
+      <c r="AFC82" s="0"/>
+      <c r="AFD82" s="0"/>
+      <c r="AFE82" s="0"/>
+      <c r="AFF82" s="0"/>
+      <c r="AFG82" s="0"/>
+      <c r="AFH82" s="0"/>
+      <c r="AFI82" s="0"/>
+      <c r="AFJ82" s="0"/>
+      <c r="AFK82" s="0"/>
+      <c r="AFL82" s="0"/>
+      <c r="AFM82" s="0"/>
+      <c r="AFN82" s="0"/>
+      <c r="AFO82" s="0"/>
+      <c r="AFP82" s="0"/>
+      <c r="AFQ82" s="0"/>
+      <c r="AFR82" s="0"/>
+      <c r="AFS82" s="0"/>
+      <c r="AFT82" s="0"/>
+      <c r="AFU82" s="0"/>
+      <c r="AFV82" s="0"/>
+      <c r="AFW82" s="0"/>
+      <c r="AFX82" s="0"/>
+      <c r="AFY82" s="0"/>
+      <c r="AFZ82" s="0"/>
+      <c r="AGA82" s="0"/>
+      <c r="AGB82" s="0"/>
+      <c r="AGC82" s="0"/>
+      <c r="AGD82" s="0"/>
+      <c r="AGE82" s="0"/>
+      <c r="AGF82" s="0"/>
+      <c r="AGG82" s="0"/>
+      <c r="AGH82" s="0"/>
+      <c r="AGI82" s="0"/>
+      <c r="AGJ82" s="0"/>
+      <c r="AGK82" s="0"/>
+      <c r="AGL82" s="0"/>
+      <c r="AGM82" s="0"/>
+      <c r="AGN82" s="0"/>
+      <c r="AGO82" s="0"/>
+      <c r="AGP82" s="0"/>
+      <c r="AGQ82" s="0"/>
+      <c r="AGR82" s="0"/>
+      <c r="AGS82" s="0"/>
+      <c r="AGT82" s="0"/>
+      <c r="AGU82" s="0"/>
+      <c r="AGV82" s="0"/>
+      <c r="AGW82" s="0"/>
+      <c r="AGX82" s="0"/>
+      <c r="AGY82" s="0"/>
+      <c r="AGZ82" s="0"/>
+      <c r="AHA82" s="0"/>
+      <c r="AHB82" s="0"/>
+      <c r="AHC82" s="0"/>
+      <c r="AHD82" s="0"/>
+      <c r="AHE82" s="0"/>
+      <c r="AHF82" s="0"/>
+      <c r="AHG82" s="0"/>
+      <c r="AHH82" s="0"/>
+      <c r="AHI82" s="0"/>
+      <c r="AHJ82" s="0"/>
+      <c r="AHK82" s="0"/>
+      <c r="AHL82" s="0"/>
+      <c r="AHM82" s="0"/>
+      <c r="AHN82" s="0"/>
+      <c r="AHO82" s="0"/>
+      <c r="AHP82" s="0"/>
+      <c r="AHQ82" s="0"/>
+      <c r="AHR82" s="0"/>
+      <c r="AHS82" s="0"/>
+      <c r="AHT82" s="0"/>
+      <c r="AHU82" s="0"/>
+      <c r="AHV82" s="0"/>
+      <c r="AHW82" s="0"/>
+      <c r="AHX82" s="0"/>
+      <c r="AHY82" s="0"/>
+      <c r="AHZ82" s="0"/>
+      <c r="AIA82" s="0"/>
+      <c r="AIB82" s="0"/>
+      <c r="AIC82" s="0"/>
+      <c r="AID82" s="0"/>
+      <c r="AIE82" s="0"/>
+      <c r="AIF82" s="0"/>
+      <c r="AIG82" s="0"/>
+      <c r="AIH82" s="0"/>
+      <c r="AII82" s="0"/>
+      <c r="AIJ82" s="0"/>
+      <c r="AIK82" s="0"/>
+      <c r="AIL82" s="0"/>
+      <c r="AIM82" s="0"/>
+      <c r="AIN82" s="0"/>
+      <c r="AIO82" s="0"/>
+      <c r="AIP82" s="0"/>
+      <c r="AIQ82" s="0"/>
+      <c r="AIR82" s="0"/>
+      <c r="AIS82" s="0"/>
+      <c r="AIT82" s="0"/>
+      <c r="AIU82" s="0"/>
+      <c r="AIV82" s="0"/>
+      <c r="AIW82" s="0"/>
+      <c r="AIX82" s="0"/>
+      <c r="AIY82" s="0"/>
+      <c r="AIZ82" s="0"/>
+      <c r="AJA82" s="0"/>
+      <c r="AJB82" s="0"/>
+      <c r="AJC82" s="0"/>
+      <c r="AJD82" s="0"/>
+      <c r="AJE82" s="0"/>
+      <c r="AJF82" s="0"/>
+      <c r="AJG82" s="0"/>
+      <c r="AJH82" s="0"/>
+      <c r="AJI82" s="0"/>
+      <c r="AJJ82" s="0"/>
+      <c r="AJK82" s="0"/>
+      <c r="AJL82" s="0"/>
+      <c r="AJM82" s="0"/>
+      <c r="AJN82" s="0"/>
+      <c r="AJO82" s="0"/>
+      <c r="AJP82" s="0"/>
+      <c r="AJQ82" s="0"/>
+      <c r="AJR82" s="0"/>
+      <c r="AJS82" s="0"/>
+      <c r="AJT82" s="0"/>
+      <c r="AJU82" s="0"/>
+      <c r="AJV82" s="0"/>
+      <c r="AJW82" s="0"/>
+      <c r="AJX82" s="0"/>
+      <c r="AJY82" s="0"/>
+      <c r="AJZ82" s="0"/>
+      <c r="AKA82" s="0"/>
+      <c r="AKB82" s="0"/>
+      <c r="AKC82" s="0"/>
+      <c r="AKD82" s="0"/>
+      <c r="AKE82" s="0"/>
+      <c r="AKF82" s="0"/>
+      <c r="AKG82" s="0"/>
+      <c r="AKH82" s="0"/>
+      <c r="AKI82" s="0"/>
+      <c r="AKJ82" s="0"/>
+      <c r="AKK82" s="0"/>
+      <c r="AKL82" s="0"/>
+      <c r="AKM82" s="0"/>
+      <c r="AKN82" s="0"/>
+      <c r="AKO82" s="0"/>
+      <c r="AKP82" s="0"/>
+      <c r="AKQ82" s="0"/>
+      <c r="AKR82" s="0"/>
+      <c r="AKS82" s="0"/>
+      <c r="AKT82" s="0"/>
+      <c r="AKU82" s="0"/>
+      <c r="AKV82" s="0"/>
+      <c r="AKW82" s="0"/>
+      <c r="AKX82" s="0"/>
+      <c r="AKY82" s="0"/>
+      <c r="AKZ82" s="0"/>
+      <c r="ALA82" s="0"/>
+      <c r="ALB82" s="0"/>
+      <c r="ALC82" s="0"/>
+      <c r="ALD82" s="0"/>
+      <c r="ALE82" s="0"/>
+      <c r="ALF82" s="0"/>
+      <c r="ALG82" s="0"/>
+      <c r="ALH82" s="0"/>
+      <c r="ALI82" s="0"/>
+      <c r="ALJ82" s="0"/>
+      <c r="ALK82" s="0"/>
+      <c r="ALL82" s="0"/>
+      <c r="ALM82" s="0"/>
+      <c r="ALN82" s="0"/>
+      <c r="ALO82" s="0"/>
+      <c r="ALP82" s="0"/>
+      <c r="ALQ82" s="0"/>
+      <c r="ALR82" s="0"/>
+      <c r="ALS82" s="0"/>
+      <c r="ALT82" s="0"/>
+      <c r="ALU82" s="0"/>
+      <c r="ALV82" s="0"/>
+      <c r="ALW82" s="0"/>
+      <c r="ALX82" s="0"/>
+      <c r="ALY82" s="0"/>
+      <c r="ALZ82" s="0"/>
+      <c r="AMA82" s="0"/>
+      <c r="AMB82" s="0"/>
+      <c r="AMC82" s="0"/>
+      <c r="AMD82" s="0"/>
+      <c r="AME82" s="0"/>
+      <c r="AMF82" s="0"/>
+      <c r="AMG82" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
